--- a/ControlBook Mensal/clientes/CISER.xlsx
+++ b/ControlBook Mensal/clientes/CISER.xlsx
@@ -16,9 +16,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -32,12 +31,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,12 +63,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y32"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,3782 +575,3783 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="3" t="n">
         <v>202302000467</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE FACILIDADES</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>02/02/2023 14:48</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>02/02/2023 19:40</t>
         </is>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="4" t="n">
         <v>44961.90138888889</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>TROCAR NOME DE USUÁRIO - RAMAL 3572 E 3638</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>BOA TARDE,  FAVOR ALTERAR O NOME NO DISPLAY DOS TELEFONES: (47) 3441-3572 -&gt; ALTERAR PARA CARLOS EDUARDO - TREFILA (47) 3441-3638 -&gt; ALTERAR PARA OZIEL JUSTINO - TRAT. TERMICO</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>FAB4</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>ALTERADO O IDENTIFICADOR DOS RAMAIS NOS APARELHOS DECTS CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>04:51:48</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>04:51:48</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X2" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Y2" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="3" t="n">
         <v>202302000477</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE FACILIDADES</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>03/02/2023 07:49</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>03/02/2023 07:59</t>
         </is>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="4" t="n">
         <v>44962.68263888889</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="3" t="inlineStr">
         <is>
           <t>ALTERAR NOME DE RAMAL</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" s="3" t="inlineStr">
         <is>
           <t>BOM DIA   SOLICITO A ALTERAÇÃO DE NOME DO RAMAL 1939 PARA ALINE BENVENUTTI. ATENCIOSAMENTE ELITON ZIMMERMANN</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" s="3" t="inlineStr">
         <is>
           <t>HACASA</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P3" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
+      <c r="Q3" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R3" s="3" t="inlineStr">
         <is>
           <t>REALIZADA CONFIGURAÇÃO CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T3" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" s="3" t="inlineStr">
         <is>
           <t>00:09:46</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="V3" s="3" t="inlineStr">
         <is>
           <t>00:09:46</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="W3" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X3" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Y3" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="3" t="n">
         <v>202302000479</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>03/02/2023 10:26</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
         <is>
           <t>03/02/2023 11:22</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>03/02/2023 11:30</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>CONFIGURAR RAMAL NOVO - SETOR TRATAMENTO TERMICO</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M4" s="3" t="inlineStr">
         <is>
           <t>BOM DIA GENTILEZA CONFIGURAR O APARELHO O APARELHO DP10 PADRÃO IP. SEGUE AS INFORMAÇÕES: * NOME DO IDENTIFICADOR: TRATAMENTO TERMICO* RAMAL: VERIFICAR NÚMERO DISPONÍVEL PARA REGISTRO* IP: 192.168.25.103* DESATIVAR SEGUNDA CHAMADA* BLOQUEAR APENAS CHAMADAS INTERNACIONAIS (DDI)* SENHA ADMINISTRADOR: BASE* IDIOMA PORTUGUÊS* VERIFICAR ATUALIZAÇÃO DO FIRMWARE* VERIFICAR DATA E HORA NO APARELHO  FICO NO AGUARDO!!</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" s="3" t="inlineStr">
         <is>
           <t>FAB4</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="P4" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
+      <c r="Q4" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R4" s="3" t="inlineStr">
         <is>
           <t>REALIZADA CONFIGURAÇÕES CONFORME SOLICITADO PELO CLIENTE</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T4" s="3" t="inlineStr">
         <is>
           <t>00:35:00</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U4" s="3" t="inlineStr">
         <is>
           <t>00:21:24</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="V4" s="3" t="inlineStr">
         <is>
           <t>00:56:24</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="W4" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X4" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Y4" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="3" t="n">
         <v>202302000509</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>06/02/2023 13:37</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>06/02/2023 13:08</t>
         </is>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="4" t="n">
         <v>44963.66666666666</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="4" t="n">
         <v>44964.27291666667</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="4" t="n">
         <v>44966.27638888889</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K5" s="3" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN-CISER-SP</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">VPN TUNNEL VPN-CISER-SPIP: 177.52.23.2REMOTE: 200.223.122.146 </t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" s="3" t="inlineStr">
         <is>
           <t>SÃO PAULO</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="P5" s="3" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" s="3" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R5" s="3" t="inlineStr">
         <is>
           <t>VPN NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S5" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T5" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U5" s="3" t="inlineStr">
         <is>
           <t>09:59:26</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="V5" s="3" t="inlineStr">
         <is>
           <t>09:59:26</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Y5" s="3" t="inlineStr">
         <is>
           <t>02:52:00</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="3" t="n">
         <v>202302000519</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>06/02/2023 17:52</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="n">
         <v>44964.41388888889</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="4" t="n">
         <v>44966.41875</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K6" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>RAMAL 1920 REDIRECIONANDO CHAMADAS.</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M6" s="3" t="inlineStr">
         <is>
           <t>BOA TARDE, FAVOR VERIFICAR RAMAL 1920 POIS ESTA DIRECIONANDO AS CHAMADAS PARA O 1906, TESTADO FACILIDADE 104 SEM SUCESSO.</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O6" s="3" t="inlineStr">
         <is>
           <t>SÃO PAULO</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="P6" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
+      <c r="Q6" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R6" s="3" t="inlineStr">
         <is>
           <t>ENCONTRADO RAMAIS DUPLICADOS NA REDE, APÓS DESLIGAR UM APARELHO AS LIGAÇÕES VOLTARAM</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="S6" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="T6" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="U6" s="3" t="inlineStr">
         <is>
           <t>05:44:59</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="V6" s="3" t="inlineStr">
         <is>
           <t>05:44:59</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="W6" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X6" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Y6" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="3" t="n">
         <v>202302000521</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>TOPOLOGIA/RELATÓRIO/ANÁLISE DE TOIP</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>07/02/2023 08:59</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="n">
         <v>44981.71666666667</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="4" t="n">
         <v>44983.75902777778</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" s="3" t="inlineStr">
         <is>
           <t>TIAGO BORBA</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K7" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="3" t="inlineStr">
         <is>
           <t>RELATÓRIO DE LIGAÇÕES RAMAL 3511 - PORTARIA MATRIZ</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="M7" s="3" t="inlineStr">
         <is>
           <t>BOM DIA,PRECISAMOS DO RELATÓRIO DE LIGAÇÕES FEITAS DO RAMAL 3511 , ( PORTARIA I ) DO DIA 31/01   DAS 18:00 HS AS 00:00 HSENVIAR RELATÓRIO NESSE MAIL.OBRIGADO !ATTBORBA</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O7" s="3" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="P7" s="3" t="inlineStr">
         <is>
           <t>SU</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
+      <c r="Q7" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R7" s="3" t="inlineStr">
         <is>
           <t>RELATÓRIO DE LIGAÇÕES DISPONIBILIZADO</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S7" s="3" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T7" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="U7" s="3" t="inlineStr">
         <is>
           <t>13:33:33</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="V7" s="3" t="inlineStr">
         <is>
           <t>13:33:33</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="W7" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X7" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Y7" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="3" t="n">
         <v>202302000536</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    FALHA NA INTEGRAÇÃO CONTACT CENTER WHATSAPP</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>07/02/2023 15:11</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>07/02/2023 15:11</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>07/02/2023 15:50</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" s="3" t="inlineStr">
         <is>
           <t>07/02/2023 15:50</t>
         </is>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="4" t="n">
         <v>44966.69166666667</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" s="3" t="inlineStr">
         <is>
           <t>TIAGO BORBA</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K8" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="3" t="inlineStr">
         <is>
           <t>URGENTE - ATENDIMENTO XCONTACT - WHATS</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="M8" s="3" t="inlineStr">
         <is>
           <t>FAVOR DAR PRIORIDADE AO PROBLEMA RELATADO ABAIXO.MESMO DETRO DA JANELA DE 24HRS SISTEMA INFORMANDO QUE NÃO É POSSÍVEL FALAR COM CLIENTE POIS A JANELA ESTA FECHADA[CID:IMAGE001.PNG@01D93B06.51A942B0]ATTBORBA</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O8" s="3" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="P8" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" s="3" t="inlineStr">
         <is>
           <t>REDE INTERNA DO CLIENTE</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="R8" s="3" t="inlineStr">
         <is>
           <t>CHAMADO SENDO ENCERRADO, POIS O CLIENTE INFORMOU QUE O PROBLEMA ESTAVA DO LADO DELES.JA FOI SOLUCIONADO PELO CLIENTE.{LUIZ CARLOS}</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="S8" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="T8" s="3" t="inlineStr">
         <is>
           <t>00:17:00</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="U8" s="3" t="inlineStr">
         <is>
           <t>00:21:23</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="V8" s="3" t="inlineStr">
         <is>
           <t>00:38:23</t>
         </is>
       </c>
-      <c r="W8" t="n">
+      <c r="W8" s="3" t="n">
         <v>7942</v>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="X8" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Y8" s="3" t="inlineStr">
         <is>
           <t>00:39:00</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="3" t="n">
         <v>202302000537</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>07/02/2023 16:20</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t>07/02/2023 16:30</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I9" s="3" t="inlineStr">
         <is>
           <t>07/02/2023 17:07</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="3" t="inlineStr">
         <is>
           <t>MURILO HORST</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K9" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="3" t="inlineStr">
         <is>
           <t>BLOQUEAR LIGAÇÃO DE NÚMEROS ESPECÍFICOS</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M9" s="3" t="inlineStr">
         <is>
           <t>BOA TARDE, FAVOR BLOQUEAR LIGAÇÕES VINDAS DOS NÚMEROS ABAIXO NA CENTRAL DA CISER MATRIZ.47349489444734275544</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="O9" s="3" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="P9" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
+      <c r="Q9" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R9" s="3" t="inlineStr">
         <is>
           <t>BLOQUEIO DE ENTRADAS DE LIGAÇOES DE NUMEROS ESPECIFICOS.</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
+      <c r="S9" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="T9" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="U9" s="3" t="inlineStr">
         <is>
           <t>00:09:56</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="V9" s="3" t="inlineStr">
         <is>
           <t>00:09:56</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="W9" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X9" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Y9" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="3" t="n">
         <v>202302000547</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    ERB INOPERANTE</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>08/02/2023 10:39</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>08/02/2023 10:35</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" s="3" t="inlineStr">
         <is>
           <t>08/02/2023 10:47</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" s="3" t="inlineStr">
         <is>
           <t>08/02/2023 10:52</t>
         </is>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="4" t="n">
         <v>44967.45347222222</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" s="3" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K10" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="3" t="inlineStr">
         <is>
           <t>CONTROLLER | DECT - CISER - UNIDADE CDC</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M10" s="3" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=55634&amp;EVENTID=381214569</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O10" s="3" t="inlineStr">
         <is>
           <t>CDC</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="P10" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" s="3" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">CONTROLADORA VOLTOU SEM INTERVENÇÃO DA BASE </t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S10" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="T10" s="3" t="inlineStr">
         <is>
           <t>00:12:00</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="U10" s="3" t="inlineStr">
         <is>
           <t>00:01:23</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="V10" s="3" t="inlineStr">
         <is>
           <t>00:13:23</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="W10" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X10" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Y10" s="3" t="inlineStr">
         <is>
           <t>00:12:00</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="3" t="n">
         <v>202302000549</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>08/02/2023 14:17</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
         <is>
           <t>08/02/2023 15:55</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I11" s="3" t="inlineStr">
         <is>
           <t>08/02/2023 16:25</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" s="3" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K11" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> AJUSTAR IDENTIFICAÇÃO VISOR - RAMAL 3963</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="M11" s="3" t="inlineStr">
         <is>
           <t>AJUSTAR IDENTIFICADOR DO VISOR DO RAMAL  (47) 3441-3963 PARA "JOSÉ LIMA".</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N11" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O11" s="3" t="inlineStr">
         <is>
           <t>FAB4</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="P11" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
+      <c r="Q11" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R11" s="3" t="inlineStr">
         <is>
           <t>ALTERAÇÃO DE DISPLAY NAME</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S11" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="T11" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="U11" s="3" t="inlineStr">
         <is>
           <t>01:37:57</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="V11" s="3" t="inlineStr">
         <is>
           <t>01:37:57</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="W11" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X11" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Y11" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="3" t="n">
         <v>202302000559</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>09/02/2023 09:40</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
         <is>
           <t>09/02/2023 10:21</t>
         </is>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="4" t="n">
         <v>44968.50555555556</v>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12" s="3" t="inlineStr">
         <is>
           <t>BRUNO HENRIQUE</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K12" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">CONFIGURAR RAMAL NO TELEFONE FIXO </t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="M12" s="3" t="inlineStr">
         <is>
           <t>TELEFONE FIXO 192.168.28.54 CONFIGURAR O RAMAL 681 EM NOME DE: EDUARDA APARECIDA CAMPOS</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N12" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="O12" s="3" t="inlineStr">
         <is>
           <t>SARZEDO</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="P12" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
+      <c r="Q12" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R12" s="3" t="inlineStr">
         <is>
           <t>EQUIPAMENTO CONFIGURADO CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="S12" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="T12" s="3" t="inlineStr">
         <is>
           <t>00:22:00</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="U12" s="3" t="inlineStr">
         <is>
           <t>00:18:29</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="V12" s="3" t="inlineStr">
         <is>
           <t>00:40:29</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
+      <c r="W12" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X12" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Y12" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="3" t="n">
         <v>202302000561</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr">
         <is>
           <t>09/02/2023 10:41</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
         <is>
           <t>09/02/2023 10:59</t>
         </is>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="4" t="n">
         <v>44968.50555555556</v>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" s="3" t="inlineStr">
         <is>
           <t>BRUNO HENRIQUE</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K13" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">CONFIGURAR RAMAL - 694 </t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="M13" s="3" t="inlineStr">
         <is>
           <t>192.168.28.25 COM O NÚMERO 694 EMERSON DIAS FERNANDES. JÁ APROVEITANDO O MEU RAMAL 688 ESTÁ CHAMANDO NOS OUTROS DISPOSITIVOS COM O NOME DE HELBERTH AINDA, PRECISO QUE SEJA CONFIGURADO EM NOME DE BRUNO REIS.</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N13" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="O13" s="3" t="inlineStr">
         <is>
           <t>SARZEDO</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="P13" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
+      <c r="Q13" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R13" s="3" t="inlineStr">
         <is>
           <t>REALIZADO A CONFIGURAÇÃO DO RAMAL 694 E ALTERADO O NOME DO RAMAL 688 PARA BRUNO REIS CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="S13" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="T13" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="U13" s="3" t="inlineStr">
         <is>
           <t>00:17:35</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="V13" s="3" t="inlineStr">
         <is>
           <t>00:17:35</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="W13" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X13" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Y13" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="3" t="n">
         <v>202302000563</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>09/02/2023 11:26</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
         <is>
           <t>09/02/2023 17:01</t>
         </is>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="4" t="n">
         <v>44968.77222222222</v>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J14" s="3" t="inlineStr">
         <is>
           <t>BRUNO HENRIQUE</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K14" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">ERRATA - RAMAIS </t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="M14" s="3" t="inlineStr">
         <is>
           <t>PESSOA, DESCULPA A CONFUSÃO, PORÉM A INFORMAÇÃO FOI ME PASSADA DE FORMA ERRADA. TELEFONE DE IP:  192.168.28.25 681 TELEFONE DE IP: 192.168.28.54 694 HOUVE UMA FALHA DE COMUNICAÇÃO INTERNET AQUI, GENTILEZA FAZER A NOVA CORREÇÃO</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N14" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="O14" s="3" t="inlineStr">
         <is>
           <t>SARZEDO</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="P14" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
+      <c r="Q14" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R14" s="3" t="inlineStr">
         <is>
           <t>ALTERAÇÃO DOS RAMAIS NOS EQUIPAMENTOS, REALIZADO CONFORME SOLICITADO.{LUIZ CARLOS}</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="S14" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="T14" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="U14" s="3" t="inlineStr">
         <is>
           <t>05:34:57</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="V14" s="3" t="inlineStr">
         <is>
           <t>05:34:57</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
+      <c r="W14" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X14" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="Y14" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="3" t="n">
         <v>202302000572</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    E1 INOPERANTE</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>09/02/2023 14:31</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>09/02/2023 14:31</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t>09/02/2023 15:03</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" s="3" t="inlineStr">
         <is>
           <t>09/02/2023 16:56</t>
         </is>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="4" t="n">
         <v>44968.77083333334</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J15" s="3" t="inlineStr">
         <is>
           <t>BRUNO HENRIQUE</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K15" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">URGENTE - DECT MÓVEIS INDIPONÍVEIS </t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="M15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">BOA TARDE,  TODOS OS RAMAIS MÓVEIS DA UNIDADE ESTÃO INDISPONÍVEL, GENTILEZA VERIFICAR.   </t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N15" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="O15" s="3" t="inlineStr">
         <is>
           <t>SARZEDO</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="P15" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" s="3" t="inlineStr">
         <is>
           <t>REDE INTERNA DO CLIENTE</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="R15" s="3" t="inlineStr">
         <is>
           <t>CHAMADO SENDO ENCERRADO, APOS O CLIENTE REINICIAR OS EQUIPAMENTOS E VOLTANDO A REGISTRAR NORMALMENTE.{LUIZ CARLOS}</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="S15" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="T15" s="3" t="inlineStr">
         <is>
           <t>02:00:00</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="U15" s="3" t="inlineStr">
         <is>
           <t>00:25:11</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="V15" s="3" t="inlineStr">
         <is>
           <t>02:25:11</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
+      <c r="W15" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X15" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="Y15" s="3" t="inlineStr">
         <is>
           <t>00:32:00</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="3" t="n">
         <v>202302000603</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="3" t="inlineStr">
         <is>
           <t>11/02/2023 13:32</t>
         </is>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="4" t="n">
         <v>44968.55763888889</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G16" s="3" t="inlineStr">
         <is>
           <t>11/02/2023 13:37</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" s="3" t="inlineStr">
         <is>
           <t>11/02/2023 14:22</t>
         </is>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="4" t="n">
         <v>44970.69513888889</v>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J16" s="3" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="K16" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" s="3" t="inlineStr">
         <is>
           <t>##CONTROLLER ERB | DECT - CISER - UNIDADE FAB4</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="M16" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> SYSTEM NAME: ERB | DECT - CISER - UNIDADE FAB4IP: 192.168.25.207DATA: 11/02/2023 ÀS 13:23DETAIL: HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=55625&amp;EVENTID=383518172 </t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="N16" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="O16" s="3" t="inlineStr">
         <is>
           <t>FAB4</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="P16" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" s="3" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="R16" s="3" t="inlineStr">
         <is>
           <t>VERIFICADO QUE O EQUIPAMENTO NORMALIZOU EM NOSSO MONITORAMENTO, CONFORME EVIDÊNCIAS EM ANEXO AO CHAMADO. ENVIADO E-MAIL AO CLIENTE, INFORMANDO NORMALIZANDO DO SERVIÇO.{DIEGO SOARES}</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="S16" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="T16" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="U16" s="3" t="inlineStr">
         <is>
           <t>00:50:41</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="V16" s="3" t="inlineStr">
         <is>
           <t>00:50:41</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
+      <c r="W16" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X16" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="Y16" s="3" t="inlineStr">
         <is>
           <t>00:14:00</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="3" t="n">
         <v>202302000609</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>12/02/2023 16:16</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="3" t="inlineStr">
         <is>
           <t>12/02/2023 15:24</t>
         </is>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="4" t="n">
         <v>44970.26597222222</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="4" t="n">
         <v>44970.39513888889</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="4" t="n">
         <v>44972.46736111111</v>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J17" s="3" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K17" s="3" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" s="3" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN-CISER-SP IS DOWN</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="M17" s="3" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN-CISER-SP IS DOWN IP:  200.223.122.146 HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=58957&amp;EVENTID=384361543</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N17" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="O17" s="3" t="inlineStr">
         <is>
           <t>SÃO PAULO</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="P17" s="3" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" s="3" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="R17" s="3" t="inlineStr">
         <is>
           <t>VPN NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="S17" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="T17" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="U17" s="3" t="inlineStr">
         <is>
           <t>01:25:32</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="V17" s="3" t="inlineStr">
         <is>
           <t>01:25:32</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
+      <c r="W17" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X17" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="Y17" s="3" t="inlineStr">
         <is>
           <t>14:59:00</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="3" t="n">
         <v>202302000611</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>INOPERÂNCIA TOTAL DE TOIP</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr">
         <is>
           <t>12/02/2023 17:28</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="3" t="inlineStr">
         <is>
           <t>12/02/2023 16:59</t>
         </is>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="4" t="n">
         <v>44970.83680555555</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="4" t="n">
         <v>44970.27291666667</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="4" t="n">
         <v>44972.27569444444</v>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J18" s="3" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K18" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" s="3" t="inlineStr">
         <is>
           <t>##CALL CENTER  | X5 CONTACT CENTER CIJUN</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="M18" s="3" t="inlineStr">
         <is>
           <t>SYSTEM NAME: CALL | XCONTACT CIJUNIP:10.21.15.201DATA: 12/02/2023 ÀS 16:59DETAIL: HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=55624&amp;EVENTID=384411602</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="N18" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="O18" s="3" t="inlineStr">
         <is>
           <t>JUNDIAI</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="P18" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" s="3" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="R18" s="3" t="inlineStr">
         <is>
           <t>ALARME NORMALIZADO SEM INTERVENÇÃO TÉCNICA DA BASE</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="S18" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="T18" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="U18" s="3" t="inlineStr">
         <is>
           <t>00:12:58</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="V18" s="3" t="inlineStr">
         <is>
           <t>00:12:58</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
+      <c r="W18" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X18" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y18" s="2" t="n">
+      <c r="Y18" s="4" t="n">
         <v>1.129166666666667</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="3" t="n">
         <v>202302000623</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr">
         <is>
           <t>13/02/2023 14:49</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H19" s="4" t="n">
         <v>44971.70416666667</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="4" t="n">
         <v>44973.725</v>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J19" s="3" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="K19" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" s="3" t="inlineStr">
         <is>
           <t>RAMAL 3991 - NÃO PERMITE PUXAR LIGAÇÕES</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="M19" s="3" t="inlineStr">
         <is>
           <t>BOA TARDE, FAVOR VERIFICAR CONFIGURAÇÃO DO RAMAL 3991 POIS OUTROS RAMAIS NO SETOR NÃO CONSEGUEM PUXAR LIGAÇÕES DIRECIONADA A ESTE RAMAL. EX. 3704</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="N19" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="O19" s="3" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="P19" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
+      <c r="Q19" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R19" s="3" t="inlineStr">
         <is>
           <t>REALIZADO A CONFIGURAÇÃO E CONFORME VALIDADO PELO CLIENTE O CHAMADO ESTÁ SENDO ENCERRADO</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="S19" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="T19" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="U19" s="3" t="inlineStr">
         <is>
           <t>07:29:35</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="V19" s="3" t="inlineStr">
         <is>
           <t>07:29:35</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
+      <c r="W19" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X19" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="Y19" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="3" t="n">
         <v>202302000640</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="3" t="inlineStr">
         <is>
           <t>14/02/2023 15:13</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="inlineStr">
         <is>
           <t>14/02/2023 17:04</t>
         </is>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="4" t="n">
         <v>44973.725</v>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J20" s="3" t="inlineStr">
         <is>
           <t>BRUNO HENRIQUE</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="K20" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">NOME NOS RAMAIS </t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="M20" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">CISER SARZEDO BOA TARDE,  GENTILEZA COLOCA O TELEFONE DE NÚMERO 673 COM O NOME DE GUILHERME FONTAN MULTARI  </t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="N20" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="O20" s="3" t="inlineStr">
         <is>
           <t>SARZEDO</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="P20" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
+      <c r="Q20" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R20" s="3" t="inlineStr">
         <is>
           <t>REALIZADO A CONFIGURAÇÃO DA ALTERAÇÃO DA MUDANÇA DO NOME CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="S20" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="T20" s="3" t="inlineStr">
         <is>
           <t>00:28:00</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="U20" s="3" t="inlineStr">
         <is>
           <t>01:23:06</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="V20" s="3" t="inlineStr">
         <is>
           <t>01:51:06</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
+      <c r="W20" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X20" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="Y20" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="3" t="n">
         <v>202302000659</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="3" t="inlineStr">
         <is>
           <t>15/02/2023 16:09</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="n">
         <v>44973.62916666667</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="I21" s="4" t="n">
         <v>44975.63680555556</v>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J21" s="3" t="inlineStr">
         <is>
           <t>TIAGO BORBA</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="K21" s="3" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" s="3" t="inlineStr">
         <is>
           <t>DUVIDA XCONTACT - WHATS APP</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="M21" s="3" t="inlineStr">
         <is>
           <t>OLÁ,NOSSOS AGENTES GOSTARIAM DE QUE O CLIENTE FOSSE NOTIFICADO QUANDO UM ATENDIMENTO FOSSE TRANSFERIDO PARA OUTRO AGENTE.OLHANDO NAS CONFIGURAÇÕES DAS FILAS COLOCAMOS A INFORMAÇÃO, PORÉM NEM O CLIENTE E NEM O AGENTE QUE RECEBE A TRANSFERÊNCIA É INFORMANDO QUE O ATENDIMENTO FOI TRANSFERIDO.WHATSAPP - GUPSHUP[CID:IMAGE001.PNG@01D94157.DFD63D20]ATTBORBA</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="N21" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="O21" s="3" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="P21" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
+      <c r="Q21" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R21" s="3" t="inlineStr">
         <is>
           <t>BOA TARDE PREZADOS,
 AS OPÇÕES MENCIONADAS, NESTE MOMENTO, ESTÃO DISPONÍVEIS APENAS PARA CONSTAREM NOS RELATÓRIOS.
 FOI INFORMADO AO NOSSO TIME DE DEV PARA QUE REALIZE O AJUSTE EM UMA VERSÃO FUTURA</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="S21" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="T21" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="U21" s="3" t="inlineStr">
         <is>
           <t>04:39:42</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
+      <c r="V21" s="3" t="inlineStr">
         <is>
           <t>04:39:42</t>
         </is>
       </c>
-      <c r="W21" t="n">
+      <c r="W21" s="3" t="n">
         <v>8092</v>
       </c>
-      <c r="X21" t="inlineStr">
+      <c r="X21" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr">
+      <c r="Y21" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="3" t="n">
         <v>202302000667</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="3" t="inlineStr">
         <is>
           <t>16/02/2023 10:55</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="inlineStr">
         <is>
           <t>16/02/2023 11:02</t>
         </is>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="I22" s="4" t="n">
         <v>44975.52569444444</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J22" s="3" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="K22" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" s="3" t="inlineStr">
         <is>
           <t>TELEFONES DECT - HORÁRIO ATRASADO.</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="M22" s="3" t="inlineStr">
         <is>
           <t>BOM DIA, FAVOR AJUSTAR O HORÁRIO NOS TELEFONES SEM FIO DECT AQUI DA FABRICA DA CISER EM ARAQUARI. TODOS OS RAMAIS MÓVEIS ESTÃO COM QUASE 50MIN DE ATRASO.</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="N22" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="O22" s="3" t="inlineStr">
         <is>
           <t>FAB4</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="P22" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
+      <c r="Q22" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R22" s="3" t="inlineStr">
         <is>
           <t>REALIZADO AJUSTE CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="S22" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="T22" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="U22" s="3" t="inlineStr">
         <is>
           <t>00:07:34</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
+      <c r="V22" s="3" t="inlineStr">
         <is>
           <t>00:07:34</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
+      <c r="W22" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X22" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
+      <c r="Y22" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="3" t="n">
         <v>202302000670</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="3" t="inlineStr">
         <is>
           <t>16/02/2023 14:55</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="inlineStr">
         <is>
           <t>16/02/2023 15:19</t>
         </is>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="I23" s="4" t="n">
         <v>44975.67152777778</v>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J23" s="3" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="K23" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" s="3" t="inlineStr">
         <is>
           <t>ALTERAR NOME DE RAMAL</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="M23" s="3" t="inlineStr">
         <is>
           <t>BOA TARDE SOLICITO QUE SEJA ALTERADO O NOME DO RAMAL 3761 ( 47 3441-3761), PARA NATAN. ATENCIOSAMENTE ELITON MISAEL ZIMMERMANN</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="N23" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="O23" s="3" t="inlineStr">
         <is>
           <t>CDC</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="P23" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
+      <c r="Q23" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R23" s="3" t="inlineStr">
         <is>
           <t>ALTERAÇÃO DE DISPLAY NAME</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="S23" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="T23" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="U23" s="3" t="inlineStr">
         <is>
           <t>00:24:11</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="V23" s="3" t="inlineStr">
         <is>
           <t>00:24:11</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
+      <c r="W23" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X23" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="Y23" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="3" t="n">
         <v>202302000671</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="3" t="inlineStr">
         <is>
           <t>16/02/2023 15:27</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="n">
         <v>44981.72013888889</v>
       </c>
-      <c r="I24" s="2" t="n">
+      <c r="I24" s="4" t="n">
         <v>44985.75902777778</v>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J24" s="3" t="inlineStr">
         <is>
           <t>MURILO HORST</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="K24" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" s="3" t="inlineStr">
         <is>
           <t>CONFIGURAR LINHA PARA SER UTILIZADA VIA MS TEAMS</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="M24" s="3" t="inlineStr">
         <is>
           <t>CONFIGURAR LINHA ABAIXO PARA SER UTILIZADA VIA MS TEAMS55 47 3441-3763</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="N24" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="O24" s="3" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="P24" s="3" t="inlineStr">
         <is>
           <t>N2 TOIP</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
+      <c r="Q24" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R24" s="3" t="inlineStr">
         <is>
           <t>RAMAL CONFIGURADO COMO SOLICITADO E VALIDADO PELO CLIENTE</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
+      <c r="S24" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="T24" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="U24" s="3" t="inlineStr">
         <is>
           <t>03:56:13</t>
         </is>
       </c>
-      <c r="V24" t="inlineStr">
+      <c r="V24" s="3" t="inlineStr">
         <is>
           <t>03:56:13</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
+      <c r="W24" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X24" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y24" t="inlineStr">
+      <c r="Y24" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="3" t="n">
         <v>202302000679</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="3" t="inlineStr">
         <is>
           <t>17/02/2023 08:17</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="inlineStr">
         <is>
           <t>17/02/2023 12:39</t>
         </is>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="I25" s="4" t="n">
         <v>44976.54444444444</v>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J25" s="3" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="K25" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" s="3" t="inlineStr">
         <is>
           <t>TROCAR NOME DE USUÁRIO - RAMAL (47) 3441-3729</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="M25" s="3" t="inlineStr">
         <is>
           <t>BOM DIA, FAVOR TROCAR O NOME DE USUÁRIO NO DISPLAY DO RAMAL: (47) 3441-3729 PARA: MARCO TULIO</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="N25" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="O25" s="3" t="inlineStr">
         <is>
           <t>FAB4</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="P25" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
+      <c r="Q25" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R25" s="3" t="inlineStr">
         <is>
           <t>ALTERAÇÃO DE DISPLAY NAME</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="S25" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="T25" s="3" t="inlineStr">
         <is>
           <t>03:52:00</t>
         </is>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="U25" s="3" t="inlineStr">
         <is>
           <t>00:29:38</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr">
+      <c r="V25" s="3" t="inlineStr">
         <is>
           <t>04:21:38</t>
         </is>
       </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
+      <c r="W25" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X25" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr">
+      <c r="Y25" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="3" t="n">
         <v>202302000684</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    CALENDÁRIO DESSINCRONIZADO</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="3" t="inlineStr">
         <is>
           <t>17/02/2023 10:07</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="3" t="inlineStr">
         <is>
           <t>17/02/2023 10:07</t>
         </is>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="4" t="n">
         <v>44980.63194444445</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="4" t="n">
         <v>44980.63472222222</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I26" s="4" t="n">
         <v>44982.64583333334</v>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J26" s="3" t="inlineStr">
         <is>
           <t>TIAGO BORBA</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="K26" s="3" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" s="3" t="inlineStr">
         <is>
           <t>CISER - EQUIPAMENTOS DE VÍDEO CONFERENCIA PERDENDO CONEXÃO CALENDÁRIO</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="M26" s="3" t="inlineStr">
         <is>
           <t>OLÁ..NOSSOS 2 EQUIPAMENTOS DE VÍDEO CONFERÊNCIA ESTÃO PERDENDO CONSTANTEMENTE A CONEXÃO COM O CALENDÁRIO.SENDO NECESSÁRIO REINICIAR OS EQUIPAMENTOS E GERANDO TRANSTORNO NO INICIO DE CADA REUNIÃO.FAVOR NOS AJUDAR QUANTO A ISSO[CID:IMAGE001.PNG@01D942B7.500CE110]ATTBORBA</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="N26" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="O26" s="3" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="P26" s="3" t="inlineStr">
         <is>
           <t>N2 VÍDEO</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" s="3" t="inlineStr">
         <is>
           <t>REDE INTERNA DO CLIENTE</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="R26" s="3" t="inlineStr">
         <is>
           <t>EM CONTATO COM O CLIENTE FOI VERIFICADO, QUE HAVIA UMA FALHA NA REDE DO CLIENTE. APÓS AJUSTE REALIZADO, OS EQUIPAMENTOS VOLTARAM A SINCRONIZAR O CALENDÁRIO NORMALMENTE</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="S26" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="T26" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="U26" s="3" t="inlineStr">
         <is>
           <t>10:51:55</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr">
+      <c r="V26" s="3" t="inlineStr">
         <is>
           <t>10:51:55</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
+      <c r="W26" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X26" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y26" s="2" t="n">
+      <c r="Y26" s="4" t="n">
         <v>6.210416666666666</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="3" t="n">
         <v>202302000688</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" s="3" t="inlineStr">
         <is>
           <t>17/02/2023 16:44</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" s="3" t="inlineStr">
         <is>
           <t>17/02/2023 14:39</t>
         </is>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="4" t="n">
         <v>44974.87222222222</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="4" t="n">
         <v>44974.99930555555</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="I27" s="4" t="n">
         <v>44977.025</v>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J27" s="3" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="K27" s="3" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" s="3" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN_CISER_SZD</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="M27" s="3" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN_CISER_SZDIP: 177.52.23.2REMOTE: 168.227.200.242</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="N27" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="O27" s="3" t="inlineStr">
         <is>
           <t>SARZEDO</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="P27" s="3" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" s="3" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="R27" s="3" t="inlineStr">
         <is>
           <t>O ALARME DE INOPERÂNCIA DA VPN FOI NORMALIZADO EM  NOSSO MONITORAMENTO. ENVIADO E-MAIL AO CLIENTE DA NORMALIZAÇÃO DO SERVIÇO</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="S27" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="T27" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U27" t="inlineStr">
+      <c r="U27" s="3" t="inlineStr">
         <is>
           <t>04:15:14</t>
         </is>
       </c>
-      <c r="V27" t="inlineStr">
+      <c r="V27" s="3" t="inlineStr">
         <is>
           <t>04:15:14</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
+      <c r="W27" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X27" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y27" t="inlineStr">
+      <c r="Y27" s="3" t="inlineStr">
         <is>
           <t>06:17:00</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="3" t="n">
         <v>202302000697</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>20/02/2023 13:37</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G28" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H28" s="3" t="inlineStr">
         <is>
           <t>20/02/2023 14:06</t>
         </is>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="I28" s="4" t="n">
         <v>44979.61458333334</v>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J28" s="3" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="K28" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" s="3" t="inlineStr">
         <is>
           <t>TROCAR NOME DE USUÁRIO - RAMAL (47) 3441-3729</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="M28" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">BOA TARDE, NA SEMANA PASSADA EU ABRI O TICKET: 202302000679 SOLICITANDO A TROCA DO NOME DE USUÁRIO DO RAMAL, PORÉM SÓ FOI ALTERADO O NOME NO DISPLAY DO APARELHO.QUANDO LIGAMOS PRO NÚMERO AINDA APARECE O NOME DO ANTIGO DONO.  RAMAL: (47) 3441-3729 -&gt; ALTERAR PARA MARCO TULIO </t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="N28" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="O28" s="3" t="inlineStr">
         <is>
           <t>JOINVILLE_FAB4</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="P28" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
+      <c r="Q28" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R28" s="3" t="inlineStr">
         <is>
           <t>BOA TARDE PREZADOS,ALTERAÇÃO REALIZADA CONFORME SOLICITADO.{LUIZ CARLOS}</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="S28" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="T28" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U28" t="inlineStr">
+      <c r="U28" s="3" t="inlineStr">
         <is>
           <t>00:28:30</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr">
+      <c r="V28" s="3" t="inlineStr">
         <is>
           <t>00:28:30</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
+      <c r="W28" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X28" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y28" t="inlineStr">
+      <c r="Y28" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="3" t="n">
         <v>202302000699</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" s="3" t="inlineStr">
         <is>
           <t>21/02/2023 17:28</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" s="3" t="inlineStr">
         <is>
           <t>21/02/2023 17:21</t>
         </is>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="G29" s="4" t="n">
         <v>44978.72638888889</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="4" t="n">
         <v>44979.35625</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="I29" s="4" t="n">
         <v>44981.38055555556</v>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J29" s="3" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="K29" s="3" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" s="3" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN-CISER-SP IS DOWN</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="M29" s="3" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=58957&amp;EVENTID=391210944</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="N29" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="O29" s="3" t="inlineStr">
         <is>
           <t>SÃO PAULO</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="P29" s="3" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q29" s="3" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="R29" s="3" t="inlineStr">
         <is>
           <t>VPN NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="S29" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="T29" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="U29" s="3" t="inlineStr">
         <is>
           <t>04:39:59</t>
         </is>
       </c>
-      <c r="V29" t="inlineStr">
+      <c r="V29" s="3" t="inlineStr">
         <is>
           <t>04:39:59</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
+      <c r="W29" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X29" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y29" t="inlineStr">
+      <c r="Y29" s="3" t="inlineStr">
         <is>
           <t>00:05:00</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="3" t="n">
         <v>202302000721</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" s="3" t="inlineStr">
         <is>
           <t>24/02/2023 13:51</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="inlineStr">
         <is>
           <t>24/02/2023 14:53</t>
         </is>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="I30" s="4" t="n">
         <v>44983.64652777778</v>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J30" s="3" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="K30" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" s="3" t="inlineStr">
         <is>
           <t>ATUALIZAR FIRMWARE RAMA 3993</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="M30" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">BOA TARDE, FAVOR ATUALIZAR O FIRMWARE DO RAMA 3993.  </t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="N30" s="3" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="O30" s="3" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="P30" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
+      <c r="Q30" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R30" s="3" t="inlineStr">
         <is>
           <t>ATUALIZAÇÃO DE FIRMWARE</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="S30" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="T30" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U30" t="inlineStr">
+      <c r="U30" s="3" t="inlineStr">
         <is>
           <t>01:02:36</t>
         </is>
       </c>
-      <c r="V30" t="inlineStr">
+      <c r="V30" s="3" t="inlineStr">
         <is>
           <t>01:02:36</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
+      <c r="W30" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X30" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y30" t="inlineStr">
+      <c r="Y30" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="5" t="n">
         <v>202302000741</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="5" t="inlineStr">
         <is>
           <t>27/02/2023 10:44</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G31" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H31" s="5" t="inlineStr">
         <is>
           <t>27/02/2023 10:51</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I31" s="5" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J31" s="5" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="K31" s="5" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" s="5" t="inlineStr">
         <is>
           <t>ALTERAR IDETIFICADOR DE CHAMADAS - RAMAL 3546 MARCO</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="M31" s="5" t="inlineStr">
         <is>
           <t>BOM DIA, FAVOR ALTERAR O IDENTIFICADOR DE CHAMADAS DO RAMAL 3546 DE KARIN, PARA MARCO.</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="N31" s="5" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="O31" s="5" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="P31" s="5" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
+      <c r="Q31" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R31" s="5" t="inlineStr">
         <is>
           <t>REALIZADO AJUSTES CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="S31" s="5" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
+      <c r="T31" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U31" t="inlineStr">
+      <c r="U31" s="5" t="inlineStr">
         <is>
           <t>00:07:31</t>
         </is>
       </c>
-      <c r="V31" t="inlineStr">
+      <c r="V31" s="5" t="inlineStr">
         <is>
           <t>00:07:31</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
+      <c r="W31" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X31" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y31" t="inlineStr">
+      <c r="Y31" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="5" t="n">
         <v>202302000761</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" s="5" t="inlineStr">
         <is>
           <t>27/02/2023 22:25</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>27/02/2023 22:03</t>
         </is>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="6" t="n">
         <v>44985.44027777778</v>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="6" t="n">
         <v>44985.47430555556</v>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="I32" s="5" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J32" s="5" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="K32" s="5" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" s="5" t="inlineStr">
         <is>
           <t>##VPN TUNNEL VPN_CISER_SZD02 IS DOWN</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="M32" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">VPN_CISER_SZD02_02 IS DOWNIP: 177.85.80.166DATA: 27/02/2023 ÀS 22:03DETAIL: HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=48805&amp;EVENTID=396038188 </t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="N32" s="5" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="O32" s="5" t="inlineStr">
         <is>
           <t>SARZEDO</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="P32" s="5" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="Q32" s="5" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="R32" s="5" t="inlineStr">
         <is>
           <t>VPN NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="S32" s="5" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="T32" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U32" t="inlineStr">
+      <c r="U32" s="5" t="inlineStr">
         <is>
           <t>00:09:40</t>
         </is>
       </c>
-      <c r="V32" t="inlineStr">
+      <c r="V32" s="5" t="inlineStr">
         <is>
           <t>00:09:40</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
+      <c r="W32" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X32" s="3" t="inlineStr">
         <is>
           <t>NOITE</t>
         </is>
       </c>
-      <c r="Y32" t="inlineStr">
+      <c r="Y32" s="3" t="inlineStr">
         <is>
           <t>12:31:00</t>
         </is>
       </c>
     </row>
+    <row r="33"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ControlBook Mensal/clientes/CISER.xlsx
+++ b/ControlBook Mensal/clientes/CISER.xlsx
@@ -63,16 +63,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -447,3905 +458,3905 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>NÚMERO</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>CATEGORIA</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>ORIGEM DE ABERTURA</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SERVIÇO</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>ABERTO EM</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>HORÁRIO DO INCIDENTE</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>DATA DE NORMALIZAÇÃO</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>RESOLVIDO EM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">FECHADO EM </t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>CRIADO POR</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SERVIÇO (1º NÍVEL)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>ASSUNTO</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>CLIENTE (ORGANIZAÇÃO)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>RESPONSÁVEL: EQUIPE</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">CAUSA RAIZ </t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>RESOLUÇÃO</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>INDICADOR DO SLA DE SOLUÇÃO</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>TEMPO PARADO (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>TEMPO DE VIDA (DESCONTANDO PARADO - HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TEMPO DE VIDA (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>TICKET EXTERNO</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>INDISPONIBILIDADE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>202302000467</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE FACILIDADES</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>02/02/2023 14:48</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>02/02/2023 19:40</t>
         </is>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="5" t="n">
         <v>44961.90138888889</v>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="L2" s="4" t="inlineStr">
         <is>
           <t>TROCAR NOME DE USUÁRIO - RAMAL 3572 E 3638</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="M2" s="4" t="inlineStr">
         <is>
           <t>BOA TARDE,  FAVOR ALTERAR O NOME NO DISPLAY DOS TELEFONES: (47) 3441-3572 -&gt; ALTERAR PARA CARLOS EDUARDO - TREFILA (47) 3441-3638 -&gt; ALTERAR PARA OZIEL JUSTINO - TRAT. TERMICO</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="N2" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="O2" s="4" t="inlineStr">
         <is>
           <t>FAB4</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="P2" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R2" s="3" t="inlineStr">
+      <c r="Q2" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t>ALTERADO O IDENTIFICADOR DOS RAMAIS NOS APARELHOS DECTS CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S2" s="3" t="inlineStr">
+      <c r="S2" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T2" s="3" t="inlineStr">
+      <c r="T2" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U2" s="3" t="inlineStr">
+      <c r="U2" s="4" t="inlineStr">
         <is>
           <t>04:51:48</t>
         </is>
       </c>
-      <c r="V2" s="3" t="inlineStr">
+      <c r="V2" s="4" t="inlineStr">
         <is>
           <t>04:51:48</t>
         </is>
       </c>
-      <c r="W2" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X2" s="3" t="inlineStr">
+      <c r="W2" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X2" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y2" s="3" t="inlineStr">
+      <c r="Y2" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <v>202302000477</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE FACILIDADES</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>03/02/2023 07:49</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>03/02/2023 07:59</t>
         </is>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="5" t="n">
         <v>44962.68263888889</v>
       </c>
-      <c r="J3" s="3" t="inlineStr">
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K3" s="3" t="inlineStr">
+      <c r="K3" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L3" s="3" t="inlineStr">
+      <c r="L3" s="4" t="inlineStr">
         <is>
           <t>ALTERAR NOME DE RAMAL</t>
         </is>
       </c>
-      <c r="M3" s="3" t="inlineStr">
+      <c r="M3" s="4" t="inlineStr">
         <is>
           <t>BOM DIA   SOLICITO A ALTERAÇÃO DE NOME DO RAMAL 1939 PARA ALINE BENVENUTTI. ATENCIOSAMENTE ELITON ZIMMERMANN</t>
         </is>
       </c>
-      <c r="N3" s="3" t="inlineStr">
+      <c r="N3" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O3" s="3" t="inlineStr">
+      <c r="O3" s="4" t="inlineStr">
         <is>
           <t>HACASA</t>
         </is>
       </c>
-      <c r="P3" s="3" t="inlineStr">
+      <c r="P3" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q3" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R3" s="3" t="inlineStr">
+      <c r="Q3" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R3" s="4" t="inlineStr">
         <is>
           <t>REALIZADA CONFIGURAÇÃO CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S3" s="3" t="inlineStr">
+      <c r="S3" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T3" s="3" t="inlineStr">
+      <c r="T3" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U3" s="3" t="inlineStr">
+      <c r="U3" s="4" t="inlineStr">
         <is>
           <t>00:09:46</t>
         </is>
       </c>
-      <c r="V3" s="3" t="inlineStr">
+      <c r="V3" s="4" t="inlineStr">
         <is>
           <t>00:09:46</t>
         </is>
       </c>
-      <c r="W3" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X3" s="3" t="inlineStr">
+      <c r="W3" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X3" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y3" s="3" t="inlineStr">
+      <c r="Y3" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="4" t="n">
         <v>202302000479</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>03/02/2023 10:26</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>03/02/2023 11:22</t>
         </is>
       </c>
-      <c r="I4" s="3" t="inlineStr">
+      <c r="I4" s="4" t="inlineStr">
         <is>
           <t>03/02/2023 11:30</t>
         </is>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K4" s="3" t="inlineStr">
+      <c r="K4" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L4" s="3" t="inlineStr">
+      <c r="L4" s="4" t="inlineStr">
         <is>
           <t>CONFIGURAR RAMAL NOVO - SETOR TRATAMENTO TERMICO</t>
         </is>
       </c>
-      <c r="M4" s="3" t="inlineStr">
+      <c r="M4" s="4" t="inlineStr">
         <is>
           <t>BOM DIA GENTILEZA CONFIGURAR O APARELHO O APARELHO DP10 PADRÃO IP. SEGUE AS INFORMAÇÕES: * NOME DO IDENTIFICADOR: TRATAMENTO TERMICO* RAMAL: VERIFICAR NÚMERO DISPONÍVEL PARA REGISTRO* IP: 192.168.25.103* DESATIVAR SEGUNDA CHAMADA* BLOQUEAR APENAS CHAMADAS INTERNACIONAIS (DDI)* SENHA ADMINISTRADOR: BASE* IDIOMA PORTUGUÊS* VERIFICAR ATUALIZAÇÃO DO FIRMWARE* VERIFICAR DATA E HORA NO APARELHO  FICO NO AGUARDO!!</t>
         </is>
       </c>
-      <c r="N4" s="3" t="inlineStr">
+      <c r="N4" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O4" s="3" t="inlineStr">
+      <c r="O4" s="4" t="inlineStr">
         <is>
           <t>FAB4</t>
         </is>
       </c>
-      <c r="P4" s="3" t="inlineStr">
+      <c r="P4" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q4" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R4" s="3" t="inlineStr">
+      <c r="Q4" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R4" s="4" t="inlineStr">
         <is>
           <t>REALIZADA CONFIGURAÇÕES CONFORME SOLICITADO PELO CLIENTE</t>
         </is>
       </c>
-      <c r="S4" s="3" t="inlineStr">
+      <c r="S4" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T4" s="3" t="inlineStr">
+      <c r="T4" s="4" t="inlineStr">
         <is>
           <t>00:35:00</t>
         </is>
       </c>
-      <c r="U4" s="3" t="inlineStr">
+      <c r="U4" s="4" t="inlineStr">
         <is>
           <t>00:21:24</t>
         </is>
       </c>
-      <c r="V4" s="3" t="inlineStr">
+      <c r="V4" s="4" t="inlineStr">
         <is>
           <t>00:56:24</t>
         </is>
       </c>
-      <c r="W4" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X4" s="3" t="inlineStr">
+      <c r="W4" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X4" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y4" s="3" t="inlineStr">
+      <c r="Y4" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>202302000509</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>06/02/2023 13:37</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>06/02/2023 13:08</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>44963.66666666666</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="5" t="n">
         <v>44964.27291666667</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="5" t="n">
         <v>44966.27638888889</v>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K5" s="3" t="inlineStr">
+      <c r="K5" s="4" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L5" s="3" t="inlineStr">
+      <c r="L5" s="4" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN-CISER-SP</t>
         </is>
       </c>
-      <c r="M5" s="3" t="inlineStr">
+      <c r="M5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">VPN TUNNEL VPN-CISER-SPIP: 177.52.23.2REMOTE: 200.223.122.146 </t>
         </is>
       </c>
-      <c r="N5" s="3" t="inlineStr">
+      <c r="N5" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O5" s="3" t="inlineStr">
+      <c r="O5" s="4" t="inlineStr">
         <is>
           <t>SÃO PAULO</t>
         </is>
       </c>
-      <c r="P5" s="3" t="inlineStr">
+      <c r="P5" s="4" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q5" s="3" t="inlineStr">
+      <c r="Q5" s="4" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R5" s="3" t="inlineStr">
+      <c r="R5" s="4" t="inlineStr">
         <is>
           <t>VPN NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S5" s="3" t="inlineStr">
+      <c r="S5" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T5" s="3" t="inlineStr">
+      <c r="T5" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U5" s="3" t="inlineStr">
+      <c r="U5" s="4" t="inlineStr">
         <is>
           <t>09:59:26</t>
         </is>
       </c>
-      <c r="V5" s="3" t="inlineStr">
+      <c r="V5" s="4" t="inlineStr">
         <is>
           <t>09:59:26</t>
         </is>
       </c>
-      <c r="W5" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X5" s="3" t="inlineStr">
+      <c r="W5" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X5" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y5" s="3" t="inlineStr">
+      <c r="Y5" s="4" t="inlineStr">
         <is>
           <t>02:52:00</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <v>202302000519</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>06/02/2023 17:52</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="n">
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="n">
         <v>44964.41388888889</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="5" t="n">
         <v>44966.41875</v>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="K6" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L6" s="3" t="inlineStr">
+      <c r="L6" s="4" t="inlineStr">
         <is>
           <t>RAMAL 1920 REDIRECIONANDO CHAMADAS.</t>
         </is>
       </c>
-      <c r="M6" s="3" t="inlineStr">
+      <c r="M6" s="4" t="inlineStr">
         <is>
           <t>BOA TARDE, FAVOR VERIFICAR RAMAL 1920 POIS ESTA DIRECIONANDO AS CHAMADAS PARA O 1906, TESTADO FACILIDADE 104 SEM SUCESSO.</t>
         </is>
       </c>
-      <c r="N6" s="3" t="inlineStr">
+      <c r="N6" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O6" s="3" t="inlineStr">
+      <c r="O6" s="4" t="inlineStr">
         <is>
           <t>SÃO PAULO</t>
         </is>
       </c>
-      <c r="P6" s="3" t="inlineStr">
+      <c r="P6" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q6" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R6" s="3" t="inlineStr">
+      <c r="Q6" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R6" s="4" t="inlineStr">
         <is>
           <t>ENCONTRADO RAMAIS DUPLICADOS NA REDE, APÓS DESLIGAR UM APARELHO AS LIGAÇÕES VOLTARAM</t>
         </is>
       </c>
-      <c r="S6" s="3" t="inlineStr">
+      <c r="S6" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T6" s="3" t="inlineStr">
+      <c r="T6" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U6" s="3" t="inlineStr">
+      <c r="U6" s="4" t="inlineStr">
         <is>
           <t>05:44:59</t>
         </is>
       </c>
-      <c r="V6" s="3" t="inlineStr">
+      <c r="V6" s="4" t="inlineStr">
         <is>
           <t>05:44:59</t>
         </is>
       </c>
-      <c r="W6" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X6" s="3" t="inlineStr">
+      <c r="W6" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X6" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y6" s="3" t="inlineStr">
+      <c r="Y6" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="4" t="n">
         <v>202302000521</v>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>TOPOLOGIA/RELATÓRIO/ANÁLISE DE TOIP</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>07/02/2023 08:59</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="n">
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="n">
         <v>44981.71666666667</v>
       </c>
-      <c r="I7" s="4" t="n">
+      <c r="I7" s="5" t="n">
         <v>44983.75902777778</v>
       </c>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>TIAGO BORBA</t>
         </is>
       </c>
-      <c r="K7" s="3" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L7" s="3" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>RELATÓRIO DE LIGAÇÕES RAMAL 3511 - PORTARIA MATRIZ</t>
         </is>
       </c>
-      <c r="M7" s="3" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>BOM DIA,PRECISAMOS DO RELATÓRIO DE LIGAÇÕES FEITAS DO RAMAL 3511 , ( PORTARIA I ) DO DIA 31/01   DAS 18:00 HS AS 00:00 HSENVIAR RELATÓRIO NESSE MAIL.OBRIGADO !ATTBORBA</t>
         </is>
       </c>
-      <c r="N7" s="3" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O7" s="3" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P7" s="3" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>SU</t>
         </is>
       </c>
-      <c r="Q7" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R7" s="3" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>RELATÓRIO DE LIGAÇÕES DISPONIBILIZADO</t>
         </is>
       </c>
-      <c r="S7" s="3" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T7" s="3" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U7" s="3" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>13:33:33</t>
         </is>
       </c>
-      <c r="V7" s="3" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>13:33:33</t>
         </is>
       </c>
-      <c r="W7" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X7" s="3" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y7" s="3" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="4" t="n">
         <v>202302000536</v>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    FALHA NA INTEGRAÇÃO CONTACT CENTER WHATSAPP</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>07/02/2023 15:11</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>07/02/2023 15:11</t>
         </is>
       </c>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
         <is>
           <t>07/02/2023 15:50</t>
         </is>
       </c>
-      <c r="H8" s="3" t="inlineStr">
+      <c r="H8" s="4" t="inlineStr">
         <is>
           <t>07/02/2023 15:50</t>
         </is>
       </c>
-      <c r="I8" s="4" t="n">
+      <c r="I8" s="5" t="n">
         <v>44966.69166666667</v>
       </c>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="J8" s="4" t="inlineStr">
         <is>
           <t>TIAGO BORBA</t>
         </is>
       </c>
-      <c r="K8" s="3" t="inlineStr">
+      <c r="K8" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L8" s="3" t="inlineStr">
+      <c r="L8" s="4" t="inlineStr">
         <is>
           <t>URGENTE - ATENDIMENTO XCONTACT - WHATS</t>
         </is>
       </c>
-      <c r="M8" s="3" t="inlineStr">
+      <c r="M8" s="4" t="inlineStr">
         <is>
           <t>FAVOR DAR PRIORIDADE AO PROBLEMA RELATADO ABAIXO.MESMO DETRO DA JANELA DE 24HRS SISTEMA INFORMANDO QUE NÃO É POSSÍVEL FALAR COM CLIENTE POIS A JANELA ESTA FECHADA[CID:IMAGE001.PNG@01D93B06.51A942B0]ATTBORBA</t>
         </is>
       </c>
-      <c r="N8" s="3" t="inlineStr">
+      <c r="N8" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O8" s="3" t="inlineStr">
+      <c r="O8" s="4" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P8" s="3" t="inlineStr">
+      <c r="P8" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q8" s="3" t="inlineStr">
+      <c r="Q8" s="4" t="inlineStr">
         <is>
           <t>REDE INTERNA DO CLIENTE</t>
         </is>
       </c>
-      <c r="R8" s="3" t="inlineStr">
+      <c r="R8" s="4" t="inlineStr">
         <is>
           <t>CHAMADO SENDO ENCERRADO, POIS O CLIENTE INFORMOU QUE O PROBLEMA ESTAVA DO LADO DELES.JA FOI SOLUCIONADO PELO CLIENTE.{LUIZ CARLOS}</t>
         </is>
       </c>
-      <c r="S8" s="3" t="inlineStr">
+      <c r="S8" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T8" s="3" t="inlineStr">
+      <c r="T8" s="4" t="inlineStr">
         <is>
           <t>00:17:00</t>
         </is>
       </c>
-      <c r="U8" s="3" t="inlineStr">
+      <c r="U8" s="4" t="inlineStr">
         <is>
           <t>00:21:23</t>
         </is>
       </c>
-      <c r="V8" s="3" t="inlineStr">
+      <c r="V8" s="4" t="inlineStr">
         <is>
           <t>00:38:23</t>
         </is>
       </c>
-      <c r="W8" s="3" t="n">
+      <c r="W8" s="4" t="n">
         <v>7942</v>
       </c>
-      <c r="X8" s="3" t="inlineStr">
+      <c r="X8" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y8" s="3" t="inlineStr">
+      <c r="Y8" s="4" t="inlineStr">
         <is>
           <t>00:39:00</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="4" t="n">
         <v>202302000537</v>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>07/02/2023 16:20</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="inlineStr">
         <is>
           <t>07/02/2023 16:30</t>
         </is>
       </c>
-      <c r="I9" s="3" t="inlineStr">
+      <c r="I9" s="4" t="inlineStr">
         <is>
           <t>07/02/2023 17:07</t>
         </is>
       </c>
-      <c r="J9" s="3" t="inlineStr">
+      <c r="J9" s="4" t="inlineStr">
         <is>
           <t>MURILO HORST</t>
         </is>
       </c>
-      <c r="K9" s="3" t="inlineStr">
+      <c r="K9" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L9" s="3" t="inlineStr">
+      <c r="L9" s="4" t="inlineStr">
         <is>
           <t>BLOQUEAR LIGAÇÃO DE NÚMEROS ESPECÍFICOS</t>
         </is>
       </c>
-      <c r="M9" s="3" t="inlineStr">
+      <c r="M9" s="4" t="inlineStr">
         <is>
           <t>BOA TARDE, FAVOR BLOQUEAR LIGAÇÕES VINDAS DOS NÚMEROS ABAIXO NA CENTRAL DA CISER MATRIZ.47349489444734275544</t>
         </is>
       </c>
-      <c r="N9" s="3" t="inlineStr">
+      <c r="N9" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O9" s="3" t="inlineStr">
+      <c r="O9" s="4" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P9" s="3" t="inlineStr">
+      <c r="P9" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q9" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R9" s="3" t="inlineStr">
+      <c r="Q9" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R9" s="4" t="inlineStr">
         <is>
           <t>BLOQUEIO DE ENTRADAS DE LIGAÇOES DE NUMEROS ESPECIFICOS.</t>
         </is>
       </c>
-      <c r="S9" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="T9" s="3" t="inlineStr">
+      <c r="S9" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="T9" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U9" s="3" t="inlineStr">
+      <c r="U9" s="4" t="inlineStr">
         <is>
           <t>00:09:56</t>
         </is>
       </c>
-      <c r="V9" s="3" t="inlineStr">
+      <c r="V9" s="4" t="inlineStr">
         <is>
           <t>00:09:56</t>
         </is>
       </c>
-      <c r="W9" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X9" s="3" t="inlineStr">
+      <c r="W9" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X9" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y9" s="3" t="inlineStr">
+      <c r="Y9" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>202302000547</v>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    ERB INOPERANTE</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>08/02/2023 10:39</t>
         </is>
       </c>
-      <c r="F10" s="3" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>08/02/2023 10:35</t>
         </is>
       </c>
-      <c r="G10" s="3" t="inlineStr">
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t>08/02/2023 10:47</t>
         </is>
       </c>
-      <c r="H10" s="3" t="inlineStr">
+      <c r="H10" s="4" t="inlineStr">
         <is>
           <t>08/02/2023 10:52</t>
         </is>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="I10" s="5" t="n">
         <v>44967.45347222222</v>
       </c>
-      <c r="J10" s="3" t="inlineStr">
+      <c r="J10" s="4" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K10" s="3" t="inlineStr">
+      <c r="K10" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L10" s="3" t="inlineStr">
+      <c r="L10" s="4" t="inlineStr">
         <is>
           <t>CONTROLLER | DECT - CISER - UNIDADE CDC</t>
         </is>
       </c>
-      <c r="M10" s="3" t="inlineStr">
+      <c r="M10" s="4" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=55634&amp;EVENTID=381214569</t>
         </is>
       </c>
-      <c r="N10" s="3" t="inlineStr">
+      <c r="N10" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O10" s="3" t="inlineStr">
+      <c r="O10" s="4" t="inlineStr">
         <is>
           <t>CDC</t>
         </is>
       </c>
-      <c r="P10" s="3" t="inlineStr">
+      <c r="P10" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q10" s="3" t="inlineStr">
+      <c r="Q10" s="4" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R10" s="3" t="inlineStr">
+      <c r="R10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">CONTROLADORA VOLTOU SEM INTERVENÇÃO DA BASE </t>
         </is>
       </c>
-      <c r="S10" s="3" t="inlineStr">
+      <c r="S10" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T10" s="3" t="inlineStr">
+      <c r="T10" s="4" t="inlineStr">
         <is>
           <t>00:12:00</t>
         </is>
       </c>
-      <c r="U10" s="3" t="inlineStr">
+      <c r="U10" s="4" t="inlineStr">
         <is>
           <t>00:01:23</t>
         </is>
       </c>
-      <c r="V10" s="3" t="inlineStr">
+      <c r="V10" s="4" t="inlineStr">
         <is>
           <t>00:13:23</t>
         </is>
       </c>
-      <c r="W10" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X10" s="3" t="inlineStr">
+      <c r="W10" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X10" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y10" s="3" t="inlineStr">
+      <c r="Y10" s="4" t="inlineStr">
         <is>
           <t>00:12:00</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>202302000549</v>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>08/02/2023 14:17</t>
         </is>
       </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H11" s="4" t="inlineStr">
         <is>
           <t>08/02/2023 15:55</t>
         </is>
       </c>
-      <c r="I11" s="3" t="inlineStr">
+      <c r="I11" s="4" t="inlineStr">
         <is>
           <t>08/02/2023 16:25</t>
         </is>
       </c>
-      <c r="J11" s="3" t="inlineStr">
+      <c r="J11" s="4" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K11" s="3" t="inlineStr">
+      <c r="K11" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L11" s="3" t="inlineStr">
+      <c r="L11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> AJUSTAR IDENTIFICAÇÃO VISOR - RAMAL 3963</t>
         </is>
       </c>
-      <c r="M11" s="3" t="inlineStr">
+      <c r="M11" s="4" t="inlineStr">
         <is>
           <t>AJUSTAR IDENTIFICADOR DO VISOR DO RAMAL  (47) 3441-3963 PARA "JOSÉ LIMA".</t>
         </is>
       </c>
-      <c r="N11" s="3" t="inlineStr">
+      <c r="N11" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O11" s="3" t="inlineStr">
+      <c r="O11" s="4" t="inlineStr">
         <is>
           <t>FAB4</t>
         </is>
       </c>
-      <c r="P11" s="3" t="inlineStr">
+      <c r="P11" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q11" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R11" s="3" t="inlineStr">
+      <c r="Q11" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R11" s="4" t="inlineStr">
         <is>
           <t>ALTERAÇÃO DE DISPLAY NAME</t>
         </is>
       </c>
-      <c r="S11" s="3" t="inlineStr">
+      <c r="S11" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T11" s="3" t="inlineStr">
+      <c r="T11" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U11" s="3" t="inlineStr">
+      <c r="U11" s="4" t="inlineStr">
         <is>
           <t>01:37:57</t>
         </is>
       </c>
-      <c r="V11" s="3" t="inlineStr">
+      <c r="V11" s="4" t="inlineStr">
         <is>
           <t>01:37:57</t>
         </is>
       </c>
-      <c r="W11" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X11" s="3" t="inlineStr">
+      <c r="W11" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X11" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y11" s="3" t="inlineStr">
+      <c r="Y11" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>202302000559</v>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>09/02/2023 09:40</t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="inlineStr">
         <is>
           <t>09/02/2023 10:21</t>
         </is>
       </c>
-      <c r="I12" s="4" t="n">
+      <c r="I12" s="5" t="n">
         <v>44968.50555555556</v>
       </c>
-      <c r="J12" s="3" t="inlineStr">
+      <c r="J12" s="4" t="inlineStr">
         <is>
           <t>BRUNO HENRIQUE</t>
         </is>
       </c>
-      <c r="K12" s="3" t="inlineStr">
+      <c r="K12" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L12" s="3" t="inlineStr">
+      <c r="L12" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">CONFIGURAR RAMAL NO TELEFONE FIXO </t>
         </is>
       </c>
-      <c r="M12" s="3" t="inlineStr">
+      <c r="M12" s="4" t="inlineStr">
         <is>
           <t>TELEFONE FIXO 192.168.28.54 CONFIGURAR O RAMAL 681 EM NOME DE: EDUARDA APARECIDA CAMPOS</t>
         </is>
       </c>
-      <c r="N12" s="3" t="inlineStr">
+      <c r="N12" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O12" s="3" t="inlineStr">
+      <c r="O12" s="4" t="inlineStr">
         <is>
           <t>SARZEDO</t>
         </is>
       </c>
-      <c r="P12" s="3" t="inlineStr">
+      <c r="P12" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q12" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R12" s="3" t="inlineStr">
+      <c r="Q12" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R12" s="4" t="inlineStr">
         <is>
           <t>EQUIPAMENTO CONFIGURADO CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S12" s="3" t="inlineStr">
+      <c r="S12" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T12" s="3" t="inlineStr">
+      <c r="T12" s="4" t="inlineStr">
         <is>
           <t>00:22:00</t>
         </is>
       </c>
-      <c r="U12" s="3" t="inlineStr">
+      <c r="U12" s="4" t="inlineStr">
         <is>
           <t>00:18:29</t>
         </is>
       </c>
-      <c r="V12" s="3" t="inlineStr">
+      <c r="V12" s="4" t="inlineStr">
         <is>
           <t>00:40:29</t>
         </is>
       </c>
-      <c r="W12" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X12" s="3" t="inlineStr">
+      <c r="W12" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X12" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y12" s="3" t="inlineStr">
+      <c r="Y12" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>202302000561</v>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E13" s="3" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>09/02/2023 10:41</t>
         </is>
       </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H13" s="3" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H13" s="4" t="inlineStr">
         <is>
           <t>09/02/2023 10:59</t>
         </is>
       </c>
-      <c r="I13" s="4" t="n">
+      <c r="I13" s="5" t="n">
         <v>44968.50555555556</v>
       </c>
-      <c r="J13" s="3" t="inlineStr">
+      <c r="J13" s="4" t="inlineStr">
         <is>
           <t>BRUNO HENRIQUE</t>
         </is>
       </c>
-      <c r="K13" s="3" t="inlineStr">
+      <c r="K13" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L13" s="3" t="inlineStr">
+      <c r="L13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">CONFIGURAR RAMAL - 694 </t>
         </is>
       </c>
-      <c r="M13" s="3" t="inlineStr">
+      <c r="M13" s="4" t="inlineStr">
         <is>
           <t>192.168.28.25 COM O NÚMERO 694 EMERSON DIAS FERNANDES. JÁ APROVEITANDO O MEU RAMAL 688 ESTÁ CHAMANDO NOS OUTROS DISPOSITIVOS COM O NOME DE HELBERTH AINDA, PRECISO QUE SEJA CONFIGURADO EM NOME DE BRUNO REIS.</t>
         </is>
       </c>
-      <c r="N13" s="3" t="inlineStr">
+      <c r="N13" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O13" s="3" t="inlineStr">
+      <c r="O13" s="4" t="inlineStr">
         <is>
           <t>SARZEDO</t>
         </is>
       </c>
-      <c r="P13" s="3" t="inlineStr">
+      <c r="P13" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q13" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R13" s="3" t="inlineStr">
+      <c r="Q13" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R13" s="4" t="inlineStr">
         <is>
           <t>REALIZADO A CONFIGURAÇÃO DO RAMAL 694 E ALTERADO O NOME DO RAMAL 688 PARA BRUNO REIS CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S13" s="3" t="inlineStr">
+      <c r="S13" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T13" s="3" t="inlineStr">
+      <c r="T13" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U13" s="3" t="inlineStr">
+      <c r="U13" s="4" t="inlineStr">
         <is>
           <t>00:17:35</t>
         </is>
       </c>
-      <c r="V13" s="3" t="inlineStr">
+      <c r="V13" s="4" t="inlineStr">
         <is>
           <t>00:17:35</t>
         </is>
       </c>
-      <c r="W13" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X13" s="3" t="inlineStr">
+      <c r="W13" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X13" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y13" s="3" t="inlineStr">
+      <c r="Y13" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="4" t="n">
         <v>202302000563</v>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>09/02/2023 11:26</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H14" s="4" t="inlineStr">
         <is>
           <t>09/02/2023 17:01</t>
         </is>
       </c>
-      <c r="I14" s="4" t="n">
+      <c r="I14" s="5" t="n">
         <v>44968.77222222222</v>
       </c>
-      <c r="J14" s="3" t="inlineStr">
+      <c r="J14" s="4" t="inlineStr">
         <is>
           <t>BRUNO HENRIQUE</t>
         </is>
       </c>
-      <c r="K14" s="3" t="inlineStr">
+      <c r="K14" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L14" s="3" t="inlineStr">
+      <c r="L14" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">ERRATA - RAMAIS </t>
         </is>
       </c>
-      <c r="M14" s="3" t="inlineStr">
+      <c r="M14" s="4" t="inlineStr">
         <is>
           <t>PESSOA, DESCULPA A CONFUSÃO, PORÉM A INFORMAÇÃO FOI ME PASSADA DE FORMA ERRADA. TELEFONE DE IP:  192.168.28.25 681 TELEFONE DE IP: 192.168.28.54 694 HOUVE UMA FALHA DE COMUNICAÇÃO INTERNET AQUI, GENTILEZA FAZER A NOVA CORREÇÃO</t>
         </is>
       </c>
-      <c r="N14" s="3" t="inlineStr">
+      <c r="N14" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O14" s="3" t="inlineStr">
+      <c r="O14" s="4" t="inlineStr">
         <is>
           <t>SARZEDO</t>
         </is>
       </c>
-      <c r="P14" s="3" t="inlineStr">
+      <c r="P14" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q14" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R14" s="3" t="inlineStr">
+      <c r="Q14" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R14" s="4" t="inlineStr">
         <is>
           <t>ALTERAÇÃO DOS RAMAIS NOS EQUIPAMENTOS, REALIZADO CONFORME SOLICITADO.{LUIZ CARLOS}</t>
         </is>
       </c>
-      <c r="S14" s="3" t="inlineStr">
+      <c r="S14" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T14" s="3" t="inlineStr">
+      <c r="T14" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U14" s="3" t="inlineStr">
+      <c r="U14" s="4" t="inlineStr">
         <is>
           <t>05:34:57</t>
         </is>
       </c>
-      <c r="V14" s="3" t="inlineStr">
+      <c r="V14" s="4" t="inlineStr">
         <is>
           <t>05:34:57</t>
         </is>
       </c>
-      <c r="W14" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X14" s="3" t="inlineStr">
+      <c r="W14" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X14" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y14" s="3" t="inlineStr">
+      <c r="Y14" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="4" t="n">
         <v>202302000572</v>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    E1 INOPERANTE</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
         <is>
           <t>09/02/2023 14:31</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
+      <c r="F15" s="4" t="inlineStr">
         <is>
           <t>09/02/2023 14:31</t>
         </is>
       </c>
-      <c r="G15" s="3" t="inlineStr">
+      <c r="G15" s="4" t="inlineStr">
         <is>
           <t>09/02/2023 15:03</t>
         </is>
       </c>
-      <c r="H15" s="3" t="inlineStr">
+      <c r="H15" s="4" t="inlineStr">
         <is>
           <t>09/02/2023 16:56</t>
         </is>
       </c>
-      <c r="I15" s="4" t="n">
+      <c r="I15" s="5" t="n">
         <v>44968.77083333334</v>
       </c>
-      <c r="J15" s="3" t="inlineStr">
+      <c r="J15" s="4" t="inlineStr">
         <is>
           <t>BRUNO HENRIQUE</t>
         </is>
       </c>
-      <c r="K15" s="3" t="inlineStr">
+      <c r="K15" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L15" s="3" t="inlineStr">
+      <c r="L15" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">URGENTE - DECT MÓVEIS INDIPONÍVEIS </t>
         </is>
       </c>
-      <c r="M15" s="3" t="inlineStr">
+      <c r="M15" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">BOA TARDE,  TODOS OS RAMAIS MÓVEIS DA UNIDADE ESTÃO INDISPONÍVEL, GENTILEZA VERIFICAR.   </t>
         </is>
       </c>
-      <c r="N15" s="3" t="inlineStr">
+      <c r="N15" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O15" s="3" t="inlineStr">
+      <c r="O15" s="4" t="inlineStr">
         <is>
           <t>SARZEDO</t>
         </is>
       </c>
-      <c r="P15" s="3" t="inlineStr">
+      <c r="P15" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q15" s="3" t="inlineStr">
+      <c r="Q15" s="4" t="inlineStr">
         <is>
           <t>REDE INTERNA DO CLIENTE</t>
         </is>
       </c>
-      <c r="R15" s="3" t="inlineStr">
+      <c r="R15" s="4" t="inlineStr">
         <is>
           <t>CHAMADO SENDO ENCERRADO, APOS O CLIENTE REINICIAR OS EQUIPAMENTOS E VOLTANDO A REGISTRAR NORMALMENTE.{LUIZ CARLOS}</t>
         </is>
       </c>
-      <c r="S15" s="3" t="inlineStr">
+      <c r="S15" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T15" s="3" t="inlineStr">
+      <c r="T15" s="4" t="inlineStr">
         <is>
           <t>02:00:00</t>
         </is>
       </c>
-      <c r="U15" s="3" t="inlineStr">
+      <c r="U15" s="4" t="inlineStr">
         <is>
           <t>00:25:11</t>
         </is>
       </c>
-      <c r="V15" s="3" t="inlineStr">
+      <c r="V15" s="4" t="inlineStr">
         <is>
           <t>02:25:11</t>
         </is>
       </c>
-      <c r="W15" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X15" s="3" t="inlineStr">
+      <c r="W15" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X15" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y15" s="3" t="inlineStr">
+      <c r="Y15" s="4" t="inlineStr">
         <is>
           <t>00:32:00</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="4" t="n">
         <v>202302000603</v>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
         <is>
           <t>11/02/2023 13:32</t>
         </is>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="5" t="n">
         <v>44968.55763888889</v>
       </c>
-      <c r="G16" s="3" t="inlineStr">
+      <c r="G16" s="4" t="inlineStr">
         <is>
           <t>11/02/2023 13:37</t>
         </is>
       </c>
-      <c r="H16" s="3" t="inlineStr">
+      <c r="H16" s="4" t="inlineStr">
         <is>
           <t>11/02/2023 14:22</t>
         </is>
       </c>
-      <c r="I16" s="4" t="n">
+      <c r="I16" s="5" t="n">
         <v>44970.69513888889</v>
       </c>
-      <c r="J16" s="3" t="inlineStr">
+      <c r="J16" s="4" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K16" s="3" t="inlineStr">
+      <c r="K16" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L16" s="3" t="inlineStr">
+      <c r="L16" s="4" t="inlineStr">
         <is>
           <t>##CONTROLLER ERB | DECT - CISER - UNIDADE FAB4</t>
         </is>
       </c>
-      <c r="M16" s="3" t="inlineStr">
+      <c r="M16" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> SYSTEM NAME: ERB | DECT - CISER - UNIDADE FAB4IP: 192.168.25.207DATA: 11/02/2023 ÀS 13:23DETAIL: HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=55625&amp;EVENTID=383518172 </t>
         </is>
       </c>
-      <c r="N16" s="3" t="inlineStr">
+      <c r="N16" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O16" s="3" t="inlineStr">
+      <c r="O16" s="4" t="inlineStr">
         <is>
           <t>FAB4</t>
         </is>
       </c>
-      <c r="P16" s="3" t="inlineStr">
+      <c r="P16" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q16" s="3" t="inlineStr">
+      <c r="Q16" s="4" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R16" s="3" t="inlineStr">
+      <c r="R16" s="4" t="inlineStr">
         <is>
           <t>VERIFICADO QUE O EQUIPAMENTO NORMALIZOU EM NOSSO MONITORAMENTO, CONFORME EVIDÊNCIAS EM ANEXO AO CHAMADO. ENVIADO E-MAIL AO CLIENTE, INFORMANDO NORMALIZANDO DO SERVIÇO.{DIEGO SOARES}</t>
         </is>
       </c>
-      <c r="S16" s="3" t="inlineStr">
+      <c r="S16" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T16" s="3" t="inlineStr">
+      <c r="T16" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U16" s="3" t="inlineStr">
+      <c r="U16" s="4" t="inlineStr">
         <is>
           <t>00:50:41</t>
         </is>
       </c>
-      <c r="V16" s="3" t="inlineStr">
+      <c r="V16" s="4" t="inlineStr">
         <is>
           <t>00:50:41</t>
         </is>
       </c>
-      <c r="W16" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X16" s="3" t="inlineStr">
+      <c r="W16" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X16" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y16" s="3" t="inlineStr">
+      <c r="Y16" s="4" t="inlineStr">
         <is>
           <t>00:14:00</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="4" t="n">
         <v>202302000609</v>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
         <is>
           <t>12/02/2023 16:16</t>
         </is>
       </c>
-      <c r="F17" s="3" t="inlineStr">
+      <c r="F17" s="4" t="inlineStr">
         <is>
           <t>12/02/2023 15:24</t>
         </is>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="5" t="n">
         <v>44970.26597222222</v>
       </c>
-      <c r="H17" s="4" t="n">
+      <c r="H17" s="5" t="n">
         <v>44970.39513888889</v>
       </c>
-      <c r="I17" s="4" t="n">
+      <c r="I17" s="5" t="n">
         <v>44972.46736111111</v>
       </c>
-      <c r="J17" s="3" t="inlineStr">
+      <c r="J17" s="4" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K17" s="3" t="inlineStr">
+      <c r="K17" s="4" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L17" s="3" t="inlineStr">
+      <c r="L17" s="4" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN-CISER-SP IS DOWN</t>
         </is>
       </c>
-      <c r="M17" s="3" t="inlineStr">
+      <c r="M17" s="4" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN-CISER-SP IS DOWN IP:  200.223.122.146 HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=58957&amp;EVENTID=384361543</t>
         </is>
       </c>
-      <c r="N17" s="3" t="inlineStr">
+      <c r="N17" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O17" s="3" t="inlineStr">
+      <c r="O17" s="4" t="inlineStr">
         <is>
           <t>SÃO PAULO</t>
         </is>
       </c>
-      <c r="P17" s="3" t="inlineStr">
+      <c r="P17" s="4" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q17" s="3" t="inlineStr">
+      <c r="Q17" s="4" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R17" s="3" t="inlineStr">
+      <c r="R17" s="4" t="inlineStr">
         <is>
           <t>VPN NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S17" s="3" t="inlineStr">
+      <c r="S17" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T17" s="3" t="inlineStr">
+      <c r="T17" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U17" s="3" t="inlineStr">
+      <c r="U17" s="4" t="inlineStr">
         <is>
           <t>01:25:32</t>
         </is>
       </c>
-      <c r="V17" s="3" t="inlineStr">
+      <c r="V17" s="4" t="inlineStr">
         <is>
           <t>01:25:32</t>
         </is>
       </c>
-      <c r="W17" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X17" s="3" t="inlineStr">
+      <c r="W17" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X17" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y17" s="3" t="inlineStr">
+      <c r="Y17" s="4" t="inlineStr">
         <is>
           <t>14:59:00</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="4" t="n">
         <v>202302000611</v>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>INOPERÂNCIA TOTAL DE TOIP</t>
         </is>
       </c>
-      <c r="E18" s="3" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr">
         <is>
           <t>12/02/2023 17:28</t>
         </is>
       </c>
-      <c r="F18" s="3" t="inlineStr">
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t>12/02/2023 16:59</t>
         </is>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="5" t="n">
         <v>44970.83680555555</v>
       </c>
-      <c r="H18" s="4" t="n">
+      <c r="H18" s="5" t="n">
         <v>44970.27291666667</v>
       </c>
-      <c r="I18" s="4" t="n">
+      <c r="I18" s="5" t="n">
         <v>44972.27569444444</v>
       </c>
-      <c r="J18" s="3" t="inlineStr">
+      <c r="J18" s="4" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K18" s="3" t="inlineStr">
+      <c r="K18" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L18" s="3" t="inlineStr">
+      <c r="L18" s="4" t="inlineStr">
         <is>
           <t>##CALL CENTER  | X5 CONTACT CENTER CIJUN</t>
         </is>
       </c>
-      <c r="M18" s="3" t="inlineStr">
+      <c r="M18" s="4" t="inlineStr">
         <is>
           <t>SYSTEM NAME: CALL | XCONTACT CIJUNIP:10.21.15.201DATA: 12/02/2023 ÀS 16:59DETAIL: HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=55624&amp;EVENTID=384411602</t>
         </is>
       </c>
-      <c r="N18" s="3" t="inlineStr">
+      <c r="N18" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O18" s="3" t="inlineStr">
+      <c r="O18" s="4" t="inlineStr">
         <is>
           <t>JUNDIAI</t>
         </is>
       </c>
-      <c r="P18" s="3" t="inlineStr">
+      <c r="P18" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q18" s="3" t="inlineStr">
+      <c r="Q18" s="4" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R18" s="3" t="inlineStr">
+      <c r="R18" s="4" t="inlineStr">
         <is>
           <t>ALARME NORMALIZADO SEM INTERVENÇÃO TÉCNICA DA BASE</t>
         </is>
       </c>
-      <c r="S18" s="3" t="inlineStr">
+      <c r="S18" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T18" s="3" t="inlineStr">
+      <c r="T18" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U18" s="3" t="inlineStr">
+      <c r="U18" s="4" t="inlineStr">
         <is>
           <t>00:12:58</t>
         </is>
       </c>
-      <c r="V18" s="3" t="inlineStr">
+      <c r="V18" s="4" t="inlineStr">
         <is>
           <t>00:12:58</t>
         </is>
       </c>
-      <c r="W18" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X18" s="3" t="inlineStr">
+      <c r="W18" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X18" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y18" s="4" t="n">
+      <c r="Y18" s="5" t="n">
         <v>1.129166666666667</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="4" t="n">
         <v>202302000623</v>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E19" s="3" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>13/02/2023 14:49</t>
         </is>
       </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H19" s="4" t="n">
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G19" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H19" s="5" t="n">
         <v>44971.70416666667</v>
       </c>
-      <c r="I19" s="4" t="n">
+      <c r="I19" s="5" t="n">
         <v>44973.725</v>
       </c>
-      <c r="J19" s="3" t="inlineStr">
+      <c r="J19" s="4" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K19" s="3" t="inlineStr">
+      <c r="K19" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L19" s="3" t="inlineStr">
+      <c r="L19" s="4" t="inlineStr">
         <is>
           <t>RAMAL 3991 - NÃO PERMITE PUXAR LIGAÇÕES</t>
         </is>
       </c>
-      <c r="M19" s="3" t="inlineStr">
+      <c r="M19" s="4" t="inlineStr">
         <is>
           <t>BOA TARDE, FAVOR VERIFICAR CONFIGURAÇÃO DO RAMAL 3991 POIS OUTROS RAMAIS NO SETOR NÃO CONSEGUEM PUXAR LIGAÇÕES DIRECIONADA A ESTE RAMAL. EX. 3704</t>
         </is>
       </c>
-      <c r="N19" s="3" t="inlineStr">
+      <c r="N19" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O19" s="3" t="inlineStr">
+      <c r="O19" s="4" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P19" s="3" t="inlineStr">
+      <c r="P19" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q19" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R19" s="3" t="inlineStr">
+      <c r="Q19" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R19" s="4" t="inlineStr">
         <is>
           <t>REALIZADO A CONFIGURAÇÃO E CONFORME VALIDADO PELO CLIENTE O CHAMADO ESTÁ SENDO ENCERRADO</t>
         </is>
       </c>
-      <c r="S19" s="3" t="inlineStr">
+      <c r="S19" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T19" s="3" t="inlineStr">
+      <c r="T19" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U19" s="3" t="inlineStr">
+      <c r="U19" s="4" t="inlineStr">
         <is>
           <t>07:29:35</t>
         </is>
       </c>
-      <c r="V19" s="3" t="inlineStr">
+      <c r="V19" s="4" t="inlineStr">
         <is>
           <t>07:29:35</t>
         </is>
       </c>
-      <c r="W19" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X19" s="3" t="inlineStr">
+      <c r="W19" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X19" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y19" s="3" t="inlineStr">
+      <c r="Y19" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="4" t="n">
         <v>202302000640</v>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D20" s="3" t="inlineStr">
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E20" s="3" t="inlineStr">
+      <c r="E20" s="4" t="inlineStr">
         <is>
           <t>14/02/2023 15:13</t>
         </is>
       </c>
-      <c r="F20" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H20" s="3" t="inlineStr">
+      <c r="F20" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G20" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H20" s="4" t="inlineStr">
         <is>
           <t>14/02/2023 17:04</t>
         </is>
       </c>
-      <c r="I20" s="4" t="n">
+      <c r="I20" s="5" t="n">
         <v>44973.725</v>
       </c>
-      <c r="J20" s="3" t="inlineStr">
+      <c r="J20" s="4" t="inlineStr">
         <is>
           <t>BRUNO HENRIQUE</t>
         </is>
       </c>
-      <c r="K20" s="3" t="inlineStr">
+      <c r="K20" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L20" s="3" t="inlineStr">
+      <c r="L20" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">NOME NOS RAMAIS </t>
         </is>
       </c>
-      <c r="M20" s="3" t="inlineStr">
+      <c r="M20" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">CISER SARZEDO BOA TARDE,  GENTILEZA COLOCA O TELEFONE DE NÚMERO 673 COM O NOME DE GUILHERME FONTAN MULTARI  </t>
         </is>
       </c>
-      <c r="N20" s="3" t="inlineStr">
+      <c r="N20" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O20" s="3" t="inlineStr">
+      <c r="O20" s="4" t="inlineStr">
         <is>
           <t>SARZEDO</t>
         </is>
       </c>
-      <c r="P20" s="3" t="inlineStr">
+      <c r="P20" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q20" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R20" s="3" t="inlineStr">
+      <c r="Q20" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R20" s="4" t="inlineStr">
         <is>
           <t>REALIZADO A CONFIGURAÇÃO DA ALTERAÇÃO DA MUDANÇA DO NOME CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S20" s="3" t="inlineStr">
+      <c r="S20" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T20" s="3" t="inlineStr">
+      <c r="T20" s="4" t="inlineStr">
         <is>
           <t>00:28:00</t>
         </is>
       </c>
-      <c r="U20" s="3" t="inlineStr">
+      <c r="U20" s="4" t="inlineStr">
         <is>
           <t>01:23:06</t>
         </is>
       </c>
-      <c r="V20" s="3" t="inlineStr">
+      <c r="V20" s="4" t="inlineStr">
         <is>
           <t>01:51:06</t>
         </is>
       </c>
-      <c r="W20" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X20" s="3" t="inlineStr">
+      <c r="W20" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X20" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y20" s="3" t="inlineStr">
+      <c r="Y20" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="4" t="n">
         <v>202302000659</v>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr">
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E21" s="3" t="inlineStr">
+      <c r="E21" s="4" t="inlineStr">
         <is>
           <t>15/02/2023 16:09</t>
         </is>
       </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H21" s="4" t="n">
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H21" s="5" t="n">
         <v>44973.62916666667</v>
       </c>
-      <c r="I21" s="4" t="n">
+      <c r="I21" s="5" t="n">
         <v>44975.63680555556</v>
       </c>
-      <c r="J21" s="3" t="inlineStr">
+      <c r="J21" s="4" t="inlineStr">
         <is>
           <t>TIAGO BORBA</t>
         </is>
       </c>
-      <c r="K21" s="3" t="inlineStr">
+      <c r="K21" s="4" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L21" s="3" t="inlineStr">
+      <c r="L21" s="4" t="inlineStr">
         <is>
           <t>DUVIDA XCONTACT - WHATS APP</t>
         </is>
       </c>
-      <c r="M21" s="3" t="inlineStr">
+      <c r="M21" s="4" t="inlineStr">
         <is>
           <t>OLÁ,NOSSOS AGENTES GOSTARIAM DE QUE O CLIENTE FOSSE NOTIFICADO QUANDO UM ATENDIMENTO FOSSE TRANSFERIDO PARA OUTRO AGENTE.OLHANDO NAS CONFIGURAÇÕES DAS FILAS COLOCAMOS A INFORMAÇÃO, PORÉM NEM O CLIENTE E NEM O AGENTE QUE RECEBE A TRANSFERÊNCIA É INFORMANDO QUE O ATENDIMENTO FOI TRANSFERIDO.WHATSAPP - GUPSHUP[CID:IMAGE001.PNG@01D94157.DFD63D20]ATTBORBA</t>
         </is>
       </c>
-      <c r="N21" s="3" t="inlineStr">
+      <c r="N21" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O21" s="3" t="inlineStr">
+      <c r="O21" s="4" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P21" s="3" t="inlineStr">
+      <c r="P21" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q21" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R21" s="3" t="inlineStr">
+      <c r="Q21" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R21" s="4" t="inlineStr">
         <is>
           <t>BOA TARDE PREZADOS,
 AS OPÇÕES MENCIONADAS, NESTE MOMENTO, ESTÃO DISPONÍVEIS APENAS PARA CONSTAREM NOS RELATÓRIOS.
 FOI INFORMADO AO NOSSO TIME DE DEV PARA QUE REALIZE O AJUSTE EM UMA VERSÃO FUTURA</t>
         </is>
       </c>
-      <c r="S21" s="3" t="inlineStr">
+      <c r="S21" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T21" s="3" t="inlineStr">
+      <c r="T21" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U21" s="3" t="inlineStr">
+      <c r="U21" s="4" t="inlineStr">
         <is>
           <t>04:39:42</t>
         </is>
       </c>
-      <c r="V21" s="3" t="inlineStr">
+      <c r="V21" s="4" t="inlineStr">
         <is>
           <t>04:39:42</t>
         </is>
       </c>
-      <c r="W21" s="3" t="n">
+      <c r="W21" s="4" t="n">
         <v>8092</v>
       </c>
-      <c r="X21" s="3" t="inlineStr">
+      <c r="X21" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y21" s="3" t="inlineStr">
+      <c r="Y21" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="4" t="n">
         <v>202302000667</v>
       </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D22" s="3" t="inlineStr">
+      <c r="D22" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E22" s="3" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr">
         <is>
           <t>16/02/2023 10:55</t>
         </is>
       </c>
-      <c r="F22" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G22" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H22" s="3" t="inlineStr">
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
         <is>
           <t>16/02/2023 11:02</t>
         </is>
       </c>
-      <c r="I22" s="4" t="n">
+      <c r="I22" s="5" t="n">
         <v>44975.52569444444</v>
       </c>
-      <c r="J22" s="3" t="inlineStr">
+      <c r="J22" s="4" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K22" s="3" t="inlineStr">
+      <c r="K22" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L22" s="3" t="inlineStr">
+      <c r="L22" s="4" t="inlineStr">
         <is>
           <t>TELEFONES DECT - HORÁRIO ATRASADO.</t>
         </is>
       </c>
-      <c r="M22" s="3" t="inlineStr">
+      <c r="M22" s="4" t="inlineStr">
         <is>
           <t>BOM DIA, FAVOR AJUSTAR O HORÁRIO NOS TELEFONES SEM FIO DECT AQUI DA FABRICA DA CISER EM ARAQUARI. TODOS OS RAMAIS MÓVEIS ESTÃO COM QUASE 50MIN DE ATRASO.</t>
         </is>
       </c>
-      <c r="N22" s="3" t="inlineStr">
+      <c r="N22" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O22" s="3" t="inlineStr">
+      <c r="O22" s="4" t="inlineStr">
         <is>
           <t>FAB4</t>
         </is>
       </c>
-      <c r="P22" s="3" t="inlineStr">
+      <c r="P22" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q22" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R22" s="3" t="inlineStr">
+      <c r="Q22" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R22" s="4" t="inlineStr">
         <is>
           <t>REALIZADO AJUSTE CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S22" s="3" t="inlineStr">
+      <c r="S22" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T22" s="3" t="inlineStr">
+      <c r="T22" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U22" s="3" t="inlineStr">
+      <c r="U22" s="4" t="inlineStr">
         <is>
           <t>00:07:34</t>
         </is>
       </c>
-      <c r="V22" s="3" t="inlineStr">
+      <c r="V22" s="4" t="inlineStr">
         <is>
           <t>00:07:34</t>
         </is>
       </c>
-      <c r="W22" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X22" s="3" t="inlineStr">
+      <c r="W22" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X22" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y22" s="3" t="inlineStr">
+      <c r="Y22" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="4" t="n">
         <v>202302000670</v>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D23" s="3" t="inlineStr">
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E23" s="3" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t>16/02/2023 14:55</t>
         </is>
       </c>
-      <c r="F23" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G23" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H23" s="3" t="inlineStr">
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
         <is>
           <t>16/02/2023 15:19</t>
         </is>
       </c>
-      <c r="I23" s="4" t="n">
+      <c r="I23" s="5" t="n">
         <v>44975.67152777778</v>
       </c>
-      <c r="J23" s="3" t="inlineStr">
+      <c r="J23" s="4" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K23" s="3" t="inlineStr">
+      <c r="K23" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L23" s="3" t="inlineStr">
+      <c r="L23" s="4" t="inlineStr">
         <is>
           <t>ALTERAR NOME DE RAMAL</t>
         </is>
       </c>
-      <c r="M23" s="3" t="inlineStr">
+      <c r="M23" s="4" t="inlineStr">
         <is>
           <t>BOA TARDE SOLICITO QUE SEJA ALTERADO O NOME DO RAMAL 3761 ( 47 3441-3761), PARA NATAN. ATENCIOSAMENTE ELITON MISAEL ZIMMERMANN</t>
         </is>
       </c>
-      <c r="N23" s="3" t="inlineStr">
+      <c r="N23" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O23" s="3" t="inlineStr">
+      <c r="O23" s="4" t="inlineStr">
         <is>
           <t>CDC</t>
         </is>
       </c>
-      <c r="P23" s="3" t="inlineStr">
+      <c r="P23" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q23" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R23" s="3" t="inlineStr">
+      <c r="Q23" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R23" s="4" t="inlineStr">
         <is>
           <t>ALTERAÇÃO DE DISPLAY NAME</t>
         </is>
       </c>
-      <c r="S23" s="3" t="inlineStr">
+      <c r="S23" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T23" s="3" t="inlineStr">
+      <c r="T23" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U23" s="3" t="inlineStr">
+      <c r="U23" s="4" t="inlineStr">
         <is>
           <t>00:24:11</t>
         </is>
       </c>
-      <c r="V23" s="3" t="inlineStr">
+      <c r="V23" s="4" t="inlineStr">
         <is>
           <t>00:24:11</t>
         </is>
       </c>
-      <c r="W23" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X23" s="3" t="inlineStr">
+      <c r="W23" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X23" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y23" s="3" t="inlineStr">
+      <c r="Y23" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="4" t="n">
         <v>202302000671</v>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr">
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E24" s="3" t="inlineStr">
+      <c r="E24" s="4" t="inlineStr">
         <is>
           <t>16/02/2023 15:27</t>
         </is>
       </c>
-      <c r="F24" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G24" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H24" s="4" t="n">
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H24" s="5" t="n">
         <v>44981.72013888889</v>
       </c>
-      <c r="I24" s="4" t="n">
+      <c r="I24" s="5" t="n">
         <v>44985.75902777778</v>
       </c>
-      <c r="J24" s="3" t="inlineStr">
+      <c r="J24" s="4" t="inlineStr">
         <is>
           <t>MURILO HORST</t>
         </is>
       </c>
-      <c r="K24" s="3" t="inlineStr">
+      <c r="K24" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L24" s="3" t="inlineStr">
+      <c r="L24" s="4" t="inlineStr">
         <is>
           <t>CONFIGURAR LINHA PARA SER UTILIZADA VIA MS TEAMS</t>
         </is>
       </c>
-      <c r="M24" s="3" t="inlineStr">
+      <c r="M24" s="4" t="inlineStr">
         <is>
           <t>CONFIGURAR LINHA ABAIXO PARA SER UTILIZADA VIA MS TEAMS55 47 3441-3763</t>
         </is>
       </c>
-      <c r="N24" s="3" t="inlineStr">
+      <c r="N24" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O24" s="3" t="inlineStr">
+      <c r="O24" s="4" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P24" s="3" t="inlineStr">
+      <c r="P24" s="4" t="inlineStr">
         <is>
           <t>N2 TOIP</t>
         </is>
       </c>
-      <c r="Q24" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R24" s="3" t="inlineStr">
+      <c r="Q24" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R24" s="4" t="inlineStr">
         <is>
           <t>RAMAL CONFIGURADO COMO SOLICITADO E VALIDADO PELO CLIENTE</t>
         </is>
       </c>
-      <c r="S24" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="T24" s="3" t="inlineStr">
+      <c r="S24" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="T24" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U24" s="3" t="inlineStr">
+      <c r="U24" s="4" t="inlineStr">
         <is>
           <t>03:56:13</t>
         </is>
       </c>
-      <c r="V24" s="3" t="inlineStr">
+      <c r="V24" s="4" t="inlineStr">
         <is>
           <t>03:56:13</t>
         </is>
       </c>
-      <c r="W24" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X24" s="3" t="inlineStr">
+      <c r="W24" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X24" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y24" s="3" t="inlineStr">
+      <c r="Y24" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="4" t="n">
         <v>202302000679</v>
       </c>
-      <c r="B25" s="3" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D25" s="3" t="inlineStr">
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E25" s="3" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr">
         <is>
           <t>17/02/2023 08:17</t>
         </is>
       </c>
-      <c r="F25" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G25" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H25" s="3" t="inlineStr">
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G25" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H25" s="4" t="inlineStr">
         <is>
           <t>17/02/2023 12:39</t>
         </is>
       </c>
-      <c r="I25" s="4" t="n">
+      <c r="I25" s="5" t="n">
         <v>44976.54444444444</v>
       </c>
-      <c r="J25" s="3" t="inlineStr">
+      <c r="J25" s="4" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K25" s="3" t="inlineStr">
+      <c r="K25" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L25" s="3" t="inlineStr">
+      <c r="L25" s="4" t="inlineStr">
         <is>
           <t>TROCAR NOME DE USUÁRIO - RAMAL (47) 3441-3729</t>
         </is>
       </c>
-      <c r="M25" s="3" t="inlineStr">
+      <c r="M25" s="4" t="inlineStr">
         <is>
           <t>BOM DIA, FAVOR TROCAR O NOME DE USUÁRIO NO DISPLAY DO RAMAL: (47) 3441-3729 PARA: MARCO TULIO</t>
         </is>
       </c>
-      <c r="N25" s="3" t="inlineStr">
+      <c r="N25" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O25" s="3" t="inlineStr">
+      <c r="O25" s="4" t="inlineStr">
         <is>
           <t>FAB4</t>
         </is>
       </c>
-      <c r="P25" s="3" t="inlineStr">
+      <c r="P25" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q25" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R25" s="3" t="inlineStr">
+      <c r="Q25" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R25" s="4" t="inlineStr">
         <is>
           <t>ALTERAÇÃO DE DISPLAY NAME</t>
         </is>
       </c>
-      <c r="S25" s="3" t="inlineStr">
+      <c r="S25" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T25" s="3" t="inlineStr">
+      <c r="T25" s="4" t="inlineStr">
         <is>
           <t>03:52:00</t>
         </is>
       </c>
-      <c r="U25" s="3" t="inlineStr">
+      <c r="U25" s="4" t="inlineStr">
         <is>
           <t>00:29:38</t>
         </is>
       </c>
-      <c r="V25" s="3" t="inlineStr">
+      <c r="V25" s="4" t="inlineStr">
         <is>
           <t>04:21:38</t>
         </is>
       </c>
-      <c r="W25" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X25" s="3" t="inlineStr">
+      <c r="W25" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X25" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y25" s="3" t="inlineStr">
+      <c r="Y25" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="4" t="n">
         <v>202302000684</v>
       </c>
-      <c r="B26" s="3" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D26" s="3" t="inlineStr">
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    CALENDÁRIO DESSINCRONIZADO</t>
         </is>
       </c>
-      <c r="E26" s="3" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>17/02/2023 10:07</t>
         </is>
       </c>
-      <c r="F26" s="3" t="inlineStr">
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t>17/02/2023 10:07</t>
         </is>
       </c>
-      <c r="G26" s="4" t="n">
+      <c r="G26" s="5" t="n">
         <v>44980.63194444445</v>
       </c>
-      <c r="H26" s="4" t="n">
+      <c r="H26" s="5" t="n">
         <v>44980.63472222222</v>
       </c>
-      <c r="I26" s="4" t="n">
+      <c r="I26" s="5" t="n">
         <v>44982.64583333334</v>
       </c>
-      <c r="J26" s="3" t="inlineStr">
+      <c r="J26" s="4" t="inlineStr">
         <is>
           <t>TIAGO BORBA</t>
         </is>
       </c>
-      <c r="K26" s="3" t="inlineStr">
+      <c r="K26" s="4" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L26" s="3" t="inlineStr">
+      <c r="L26" s="4" t="inlineStr">
         <is>
           <t>CISER - EQUIPAMENTOS DE VÍDEO CONFERENCIA PERDENDO CONEXÃO CALENDÁRIO</t>
         </is>
       </c>
-      <c r="M26" s="3" t="inlineStr">
+      <c r="M26" s="4" t="inlineStr">
         <is>
           <t>OLÁ..NOSSOS 2 EQUIPAMENTOS DE VÍDEO CONFERÊNCIA ESTÃO PERDENDO CONSTANTEMENTE A CONEXÃO COM O CALENDÁRIO.SENDO NECESSÁRIO REINICIAR OS EQUIPAMENTOS E GERANDO TRANSTORNO NO INICIO DE CADA REUNIÃO.FAVOR NOS AJUDAR QUANTO A ISSO[CID:IMAGE001.PNG@01D942B7.500CE110]ATTBORBA</t>
         </is>
       </c>
-      <c r="N26" s="3" t="inlineStr">
+      <c r="N26" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O26" s="3" t="inlineStr">
+      <c r="O26" s="4" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P26" s="3" t="inlineStr">
+      <c r="P26" s="4" t="inlineStr">
         <is>
           <t>N2 VÍDEO</t>
         </is>
       </c>
-      <c r="Q26" s="3" t="inlineStr">
+      <c r="Q26" s="4" t="inlineStr">
         <is>
           <t>REDE INTERNA DO CLIENTE</t>
         </is>
       </c>
-      <c r="R26" s="3" t="inlineStr">
+      <c r="R26" s="4" t="inlineStr">
         <is>
           <t>EM CONTATO COM O CLIENTE FOI VERIFICADO, QUE HAVIA UMA FALHA NA REDE DO CLIENTE. APÓS AJUSTE REALIZADO, OS EQUIPAMENTOS VOLTARAM A SINCRONIZAR O CALENDÁRIO NORMALMENTE</t>
         </is>
       </c>
-      <c r="S26" s="3" t="inlineStr">
+      <c r="S26" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T26" s="3" t="inlineStr">
+      <c r="T26" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U26" s="3" t="inlineStr">
+      <c r="U26" s="4" t="inlineStr">
         <is>
           <t>10:51:55</t>
         </is>
       </c>
-      <c r="V26" s="3" t="inlineStr">
+      <c r="V26" s="4" t="inlineStr">
         <is>
           <t>10:51:55</t>
         </is>
       </c>
-      <c r="W26" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X26" s="3" t="inlineStr">
+      <c r="W26" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X26" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y26" s="4" t="n">
+      <c r="Y26" s="5" t="n">
         <v>6.210416666666666</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="4" t="n">
         <v>202302000688</v>
       </c>
-      <c r="B27" s="3" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D27" s="3" t="inlineStr">
+      <c r="D27" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E27" s="3" t="inlineStr">
+      <c r="E27" s="4" t="inlineStr">
         <is>
           <t>17/02/2023 16:44</t>
         </is>
       </c>
-      <c r="F27" s="3" t="inlineStr">
+      <c r="F27" s="4" t="inlineStr">
         <is>
           <t>17/02/2023 14:39</t>
         </is>
       </c>
-      <c r="G27" s="4" t="n">
+      <c r="G27" s="5" t="n">
         <v>44974.87222222222</v>
       </c>
-      <c r="H27" s="4" t="n">
+      <c r="H27" s="5" t="n">
         <v>44974.99930555555</v>
       </c>
-      <c r="I27" s="4" t="n">
+      <c r="I27" s="5" t="n">
         <v>44977.025</v>
       </c>
-      <c r="J27" s="3" t="inlineStr">
+      <c r="J27" s="4" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K27" s="3" t="inlineStr">
+      <c r="K27" s="4" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L27" s="3" t="inlineStr">
+      <c r="L27" s="4" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN_CISER_SZD</t>
         </is>
       </c>
-      <c r="M27" s="3" t="inlineStr">
+      <c r="M27" s="4" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN_CISER_SZDIP: 177.52.23.2REMOTE: 168.227.200.242</t>
         </is>
       </c>
-      <c r="N27" s="3" t="inlineStr">
+      <c r="N27" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O27" s="3" t="inlineStr">
+      <c r="O27" s="4" t="inlineStr">
         <is>
           <t>SARZEDO</t>
         </is>
       </c>
-      <c r="P27" s="3" t="inlineStr">
+      <c r="P27" s="4" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q27" s="3" t="inlineStr">
+      <c r="Q27" s="4" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R27" s="3" t="inlineStr">
+      <c r="R27" s="4" t="inlineStr">
         <is>
           <t>O ALARME DE INOPERÂNCIA DA VPN FOI NORMALIZADO EM  NOSSO MONITORAMENTO. ENVIADO E-MAIL AO CLIENTE DA NORMALIZAÇÃO DO SERVIÇO</t>
         </is>
       </c>
-      <c r="S27" s="3" t="inlineStr">
+      <c r="S27" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T27" s="3" t="inlineStr">
+      <c r="T27" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U27" s="3" t="inlineStr">
+      <c r="U27" s="4" t="inlineStr">
         <is>
           <t>04:15:14</t>
         </is>
       </c>
-      <c r="V27" s="3" t="inlineStr">
+      <c r="V27" s="4" t="inlineStr">
         <is>
           <t>04:15:14</t>
         </is>
       </c>
-      <c r="W27" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X27" s="3" t="inlineStr">
+      <c r="W27" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X27" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y27" s="3" t="inlineStr">
+      <c r="Y27" s="4" t="inlineStr">
         <is>
           <t>06:17:00</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="4" t="n">
         <v>202302000697</v>
       </c>
-      <c r="B28" s="3" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D28" s="3" t="inlineStr">
+      <c r="D28" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E28" s="3" t="inlineStr">
+      <c r="E28" s="4" t="inlineStr">
         <is>
           <t>20/02/2023 13:37</t>
         </is>
       </c>
-      <c r="F28" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G28" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H28" s="3" t="inlineStr">
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G28" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H28" s="4" t="inlineStr">
         <is>
           <t>20/02/2023 14:06</t>
         </is>
       </c>
-      <c r="I28" s="4" t="n">
+      <c r="I28" s="5" t="n">
         <v>44979.61458333334</v>
       </c>
-      <c r="J28" s="3" t="inlineStr">
+      <c r="J28" s="4" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K28" s="3" t="inlineStr">
+      <c r="K28" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L28" s="3" t="inlineStr">
+      <c r="L28" s="4" t="inlineStr">
         <is>
           <t>TROCAR NOME DE USUÁRIO - RAMAL (47) 3441-3729</t>
         </is>
       </c>
-      <c r="M28" s="3" t="inlineStr">
+      <c r="M28" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">BOA TARDE, NA SEMANA PASSADA EU ABRI O TICKET: 202302000679 SOLICITANDO A TROCA DO NOME DE USUÁRIO DO RAMAL, PORÉM SÓ FOI ALTERADO O NOME NO DISPLAY DO APARELHO.QUANDO LIGAMOS PRO NÚMERO AINDA APARECE O NOME DO ANTIGO DONO.  RAMAL: (47) 3441-3729 -&gt; ALTERAR PARA MARCO TULIO </t>
         </is>
       </c>
-      <c r="N28" s="3" t="inlineStr">
+      <c r="N28" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O28" s="3" t="inlineStr">
+      <c r="O28" s="4" t="inlineStr">
         <is>
           <t>JOINVILLE_FAB4</t>
         </is>
       </c>
-      <c r="P28" s="3" t="inlineStr">
+      <c r="P28" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q28" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R28" s="3" t="inlineStr">
+      <c r="Q28" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R28" s="4" t="inlineStr">
         <is>
           <t>BOA TARDE PREZADOS,ALTERAÇÃO REALIZADA CONFORME SOLICITADO.{LUIZ CARLOS}</t>
         </is>
       </c>
-      <c r="S28" s="3" t="inlineStr">
+      <c r="S28" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T28" s="3" t="inlineStr">
+      <c r="T28" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U28" s="3" t="inlineStr">
+      <c r="U28" s="4" t="inlineStr">
         <is>
           <t>00:28:30</t>
         </is>
       </c>
-      <c r="V28" s="3" t="inlineStr">
+      <c r="V28" s="4" t="inlineStr">
         <is>
           <t>00:28:30</t>
         </is>
       </c>
-      <c r="W28" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X28" s="3" t="inlineStr">
+      <c r="W28" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X28" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y28" s="3" t="inlineStr">
+      <c r="Y28" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="4" t="n">
         <v>202302000699</v>
       </c>
-      <c r="B29" s="3" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr">
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D29" s="3" t="inlineStr">
+      <c r="D29" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E29" s="3" t="inlineStr">
+      <c r="E29" s="4" t="inlineStr">
         <is>
           <t>21/02/2023 17:28</t>
         </is>
       </c>
-      <c r="F29" s="3" t="inlineStr">
+      <c r="F29" s="4" t="inlineStr">
         <is>
           <t>21/02/2023 17:21</t>
         </is>
       </c>
-      <c r="G29" s="4" t="n">
+      <c r="G29" s="5" t="n">
         <v>44978.72638888889</v>
       </c>
-      <c r="H29" s="4" t="n">
+      <c r="H29" s="5" t="n">
         <v>44979.35625</v>
       </c>
-      <c r="I29" s="4" t="n">
+      <c r="I29" s="5" t="n">
         <v>44981.38055555556</v>
       </c>
-      <c r="J29" s="3" t="inlineStr">
+      <c r="J29" s="4" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K29" s="3" t="inlineStr">
+      <c r="K29" s="4" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L29" s="3" t="inlineStr">
+      <c r="L29" s="4" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN-CISER-SP IS DOWN</t>
         </is>
       </c>
-      <c r="M29" s="3" t="inlineStr">
+      <c r="M29" s="4" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=58957&amp;EVENTID=391210944</t>
         </is>
       </c>
-      <c r="N29" s="3" t="inlineStr">
+      <c r="N29" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O29" s="3" t="inlineStr">
+      <c r="O29" s="4" t="inlineStr">
         <is>
           <t>SÃO PAULO</t>
         </is>
       </c>
-      <c r="P29" s="3" t="inlineStr">
+      <c r="P29" s="4" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q29" s="3" t="inlineStr">
+      <c r="Q29" s="4" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R29" s="3" t="inlineStr">
+      <c r="R29" s="4" t="inlineStr">
         <is>
           <t>VPN NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S29" s="3" t="inlineStr">
+      <c r="S29" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T29" s="3" t="inlineStr">
+      <c r="T29" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U29" s="3" t="inlineStr">
+      <c r="U29" s="4" t="inlineStr">
         <is>
           <t>04:39:59</t>
         </is>
       </c>
-      <c r="V29" s="3" t="inlineStr">
+      <c r="V29" s="4" t="inlineStr">
         <is>
           <t>04:39:59</t>
         </is>
       </c>
-      <c r="W29" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X29" s="3" t="inlineStr">
+      <c r="W29" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X29" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y29" s="3" t="inlineStr">
+      <c r="Y29" s="4" t="inlineStr">
         <is>
           <t>00:05:00</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="4" t="n">
         <v>202302000721</v>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D30" s="3" t="inlineStr">
+      <c r="D30" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E30" s="3" t="inlineStr">
+      <c r="E30" s="4" t="inlineStr">
         <is>
           <t>24/02/2023 13:51</t>
         </is>
       </c>
-      <c r="F30" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G30" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H30" s="3" t="inlineStr">
+      <c r="F30" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G30" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H30" s="4" t="inlineStr">
         <is>
           <t>24/02/2023 14:53</t>
         </is>
       </c>
-      <c r="I30" s="4" t="n">
+      <c r="I30" s="5" t="n">
         <v>44983.64652777778</v>
       </c>
-      <c r="J30" s="3" t="inlineStr">
+      <c r="J30" s="4" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K30" s="3" t="inlineStr">
+      <c r="K30" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L30" s="3" t="inlineStr">
+      <c r="L30" s="4" t="inlineStr">
         <is>
           <t>ATUALIZAR FIRMWARE RAMA 3993</t>
         </is>
       </c>
-      <c r="M30" s="3" t="inlineStr">
+      <c r="M30" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">BOA TARDE, FAVOR ATUALIZAR O FIRMWARE DO RAMA 3993.  </t>
         </is>
       </c>
-      <c r="N30" s="3" t="inlineStr">
+      <c r="N30" s="4" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O30" s="3" t="inlineStr">
+      <c r="O30" s="4" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P30" s="3" t="inlineStr">
+      <c r="P30" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q30" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R30" s="3" t="inlineStr">
+      <c r="Q30" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R30" s="4" t="inlineStr">
         <is>
           <t>ATUALIZAÇÃO DE FIRMWARE</t>
         </is>
       </c>
-      <c r="S30" s="3" t="inlineStr">
+      <c r="S30" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T30" s="3" t="inlineStr">
+      <c r="T30" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U30" s="3" t="inlineStr">
+      <c r="U30" s="4" t="inlineStr">
         <is>
           <t>01:02:36</t>
         </is>
       </c>
-      <c r="V30" s="3" t="inlineStr">
+      <c r="V30" s="4" t="inlineStr">
         <is>
           <t>01:02:36</t>
         </is>
       </c>
-      <c r="W30" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X30" s="3" t="inlineStr">
+      <c r="W30" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X30" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y30" s="3" t="inlineStr">
+      <c r="Y30" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="n">
+      <c r="A31" s="6" t="n">
         <v>202302000741</v>
       </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="B31" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C31" s="5" t="inlineStr">
+      <c r="C31" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D31" s="5" t="inlineStr">
+      <c r="D31" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E31" s="5" t="inlineStr">
+      <c r="E31" s="6" t="inlineStr">
         <is>
           <t>27/02/2023 10:44</t>
         </is>
       </c>
-      <c r="F31" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G31" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H31" s="5" t="inlineStr">
+      <c r="F31" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G31" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H31" s="6" t="inlineStr">
         <is>
           <t>27/02/2023 10:51</t>
         </is>
       </c>
-      <c r="I31" s="5" t="inlineStr">
+      <c r="I31" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J31" s="5" t="inlineStr">
+      <c r="J31" s="6" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K31" s="5" t="inlineStr">
+      <c r="K31" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L31" s="5" t="inlineStr">
+      <c r="L31" s="6" t="inlineStr">
         <is>
           <t>ALTERAR IDETIFICADOR DE CHAMADAS - RAMAL 3546 MARCO</t>
         </is>
       </c>
-      <c r="M31" s="5" t="inlineStr">
+      <c r="M31" s="6" t="inlineStr">
         <is>
           <t>BOM DIA, FAVOR ALTERAR O IDENTIFICADOR DE CHAMADAS DO RAMAL 3546 DE KARIN, PARA MARCO.</t>
         </is>
       </c>
-      <c r="N31" s="5" t="inlineStr">
+      <c r="N31" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O31" s="5" t="inlineStr">
+      <c r="O31" s="6" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P31" s="5" t="inlineStr">
+      <c r="P31" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q31" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R31" s="5" t="inlineStr">
+      <c r="Q31" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R31" s="6" t="inlineStr">
         <is>
           <t>REALIZADO AJUSTES CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S31" s="5" t="inlineStr">
+      <c r="S31" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T31" s="5" t="inlineStr">
+      <c r="T31" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U31" s="5" t="inlineStr">
+      <c r="U31" s="6" t="inlineStr">
         <is>
           <t>00:07:31</t>
         </is>
       </c>
-      <c r="V31" s="5" t="inlineStr">
+      <c r="V31" s="6" t="inlineStr">
         <is>
           <t>00:07:31</t>
         </is>
       </c>
-      <c r="W31" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X31" s="3" t="inlineStr">
+      <c r="W31" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X31" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y31" s="3" t="inlineStr">
+      <c r="Y31" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="n">
+      <c r="A32" s="6" t="n">
         <v>202302000761</v>
       </c>
-      <c r="B32" s="5" t="inlineStr">
+      <c r="B32" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C32" s="5" t="inlineStr">
+      <c r="C32" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D32" s="5" t="inlineStr">
+      <c r="D32" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E32" s="5" t="inlineStr">
+      <c r="E32" s="6" t="inlineStr">
         <is>
           <t>27/02/2023 22:25</t>
         </is>
       </c>
-      <c r="F32" s="5" t="inlineStr">
+      <c r="F32" s="6" t="inlineStr">
         <is>
           <t>27/02/2023 22:03</t>
         </is>
       </c>
-      <c r="G32" s="6" t="n">
+      <c r="G32" s="7" t="n">
         <v>44985.44027777778</v>
       </c>
-      <c r="H32" s="6" t="n">
+      <c r="H32" s="7" t="n">
         <v>44985.47430555556</v>
       </c>
-      <c r="I32" s="5" t="inlineStr">
+      <c r="I32" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J32" s="5" t="inlineStr">
+      <c r="J32" s="6" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K32" s="5" t="inlineStr">
+      <c r="K32" s="6" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L32" s="5" t="inlineStr">
+      <c r="L32" s="6" t="inlineStr">
         <is>
           <t>##VPN TUNNEL VPN_CISER_SZD02 IS DOWN</t>
         </is>
       </c>
-      <c r="M32" s="5" t="inlineStr">
+      <c r="M32" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">VPN_CISER_SZD02_02 IS DOWNIP: 177.85.80.166DATA: 27/02/2023 ÀS 22:03DETAIL: HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=48805&amp;EVENTID=396038188 </t>
         </is>
       </c>
-      <c r="N32" s="5" t="inlineStr">
+      <c r="N32" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O32" s="5" t="inlineStr">
+      <c r="O32" s="6" t="inlineStr">
         <is>
           <t>SARZEDO</t>
         </is>
       </c>
-      <c r="P32" s="5" t="inlineStr">
+      <c r="P32" s="6" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q32" s="5" t="inlineStr">
+      <c r="Q32" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R32" s="5" t="inlineStr">
+      <c r="R32" s="6" t="inlineStr">
         <is>
           <t>VPN NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S32" s="5" t="inlineStr">
+      <c r="S32" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T32" s="5" t="inlineStr">
+      <c r="T32" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U32" s="5" t="inlineStr">
+      <c r="U32" s="6" t="inlineStr">
         <is>
           <t>00:09:40</t>
         </is>
       </c>
-      <c r="V32" s="5" t="inlineStr">
+      <c r="V32" s="6" t="inlineStr">
         <is>
           <t>00:09:40</t>
         </is>
       </c>
-      <c r="W32" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X32" s="3" t="inlineStr">
+      <c r="W32" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X32" s="4" t="inlineStr">
         <is>
           <t>NOITE</t>
         </is>
       </c>
-      <c r="Y32" s="3" t="inlineStr">
+      <c r="Y32" s="4" t="inlineStr">
         <is>
           <t>12:31:00</t>
         </is>

--- a/ControlBook Mensal/clientes/CISER.xlsx
+++ b/ControlBook Mensal/clientes/CISER.xlsx
@@ -63,19 +63,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -463,3900 +472,3900 @@
           <t>NÚMERO</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>CATEGORIA</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>ORIGEM DE ABERTURA</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>SERVIÇO</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>ABERTO EM</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>HORÁRIO DO INCIDENTE</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>DATA DE NORMALIZAÇÃO</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>RESOLVIDO EM</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">FECHADO EM </t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>CRIADO POR</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>SERVIÇO (1º NÍVEL)</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>ASSUNTO</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>CLIENTE (ORGANIZAÇÃO)</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="O1" s="4" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="P1" s="4" t="inlineStr">
         <is>
           <t>RESPONSÁVEL: EQUIPE</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="Q1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">CAUSA RAIZ </t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="R1" s="4" t="inlineStr">
         <is>
           <t>RESOLUÇÃO</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
+      <c r="S1" s="4" t="inlineStr">
         <is>
           <t>INDICADOR DO SLA DE SOLUÇÃO</t>
         </is>
       </c>
-      <c r="T1" s="3" t="inlineStr">
+      <c r="T1" s="4" t="inlineStr">
         <is>
           <t>TEMPO PARADO (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="U1" s="3" t="inlineStr">
+      <c r="U1" s="4" t="inlineStr">
         <is>
           <t>TEMPO DE VIDA (DESCONTANDO PARADO - HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="V1" s="3" t="inlineStr">
+      <c r="V1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TEMPO DE VIDA (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="W1" s="3" t="inlineStr">
+      <c r="W1" s="4" t="inlineStr">
         <is>
           <t>TICKET EXTERNO</t>
         </is>
       </c>
-      <c r="X1" s="3" t="inlineStr">
+      <c r="X1" s="4" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="Y1" s="3" t="inlineStr">
+      <c r="Y1" s="4" t="inlineStr">
         <is>
           <t>INDISPONIBILIDADE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="5" t="n">
         <v>202302000467</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE FACILIDADES</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>02/02/2023 14:48</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H2" s="6" t="inlineStr">
         <is>
           <t>02/02/2023 19:40</t>
         </is>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="7" t="n">
         <v>44961.90138888889</v>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="6" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="K2" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L2" s="4" t="inlineStr">
+      <c r="L2" s="6" t="inlineStr">
         <is>
           <t>TROCAR NOME DE USUÁRIO - RAMAL 3572 E 3638</t>
         </is>
       </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="M2" s="6" t="inlineStr">
         <is>
           <t>BOA TARDE,  FAVOR ALTERAR O NOME NO DISPLAY DOS TELEFONES: (47) 3441-3572 -&gt; ALTERAR PARA CARLOS EDUARDO - TREFILA (47) 3441-3638 -&gt; ALTERAR PARA OZIEL JUSTINO - TRAT. TERMICO</t>
         </is>
       </c>
-      <c r="N2" s="4" t="inlineStr">
+      <c r="N2" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O2" s="4" t="inlineStr">
+      <c r="O2" s="6" t="inlineStr">
         <is>
           <t>FAB4</t>
         </is>
       </c>
-      <c r="P2" s="4" t="inlineStr">
+      <c r="P2" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q2" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="Q2" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R2" s="6" t="inlineStr">
         <is>
           <t>ALTERADO O IDENTIFICADOR DOS RAMAIS NOS APARELHOS DECTS CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="S2" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T2" s="4" t="inlineStr">
+      <c r="T2" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U2" s="4" t="inlineStr">
+      <c r="U2" s="6" t="inlineStr">
         <is>
           <t>04:51:48</t>
         </is>
       </c>
-      <c r="V2" s="4" t="inlineStr">
+      <c r="V2" s="6" t="inlineStr">
         <is>
           <t>04:51:48</t>
         </is>
       </c>
-      <c r="W2" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X2" s="4" t="inlineStr">
+      <c r="W2" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X2" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="Y2" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="5" t="n">
         <v>202302000477</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE FACILIDADES</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>03/02/2023 07:49</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H3" s="6" t="inlineStr">
         <is>
           <t>03/02/2023 07:59</t>
         </is>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="7" t="n">
         <v>44962.68263888889</v>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J3" s="6" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K3" s="4" t="inlineStr">
+      <c r="K3" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L3" s="4" t="inlineStr">
+      <c r="L3" s="6" t="inlineStr">
         <is>
           <t>ALTERAR NOME DE RAMAL</t>
         </is>
       </c>
-      <c r="M3" s="4" t="inlineStr">
+      <c r="M3" s="6" t="inlineStr">
         <is>
           <t>BOM DIA   SOLICITO A ALTERAÇÃO DE NOME DO RAMAL 1939 PARA ALINE BENVENUTTI. ATENCIOSAMENTE ELITON ZIMMERMANN</t>
         </is>
       </c>
-      <c r="N3" s="4" t="inlineStr">
+      <c r="N3" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O3" s="4" t="inlineStr">
+      <c r="O3" s="6" t="inlineStr">
         <is>
           <t>HACASA</t>
         </is>
       </c>
-      <c r="P3" s="4" t="inlineStr">
+      <c r="P3" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q3" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="Q3" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R3" s="6" t="inlineStr">
         <is>
           <t>REALIZADA CONFIGURAÇÃO CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S3" s="4" t="inlineStr">
+      <c r="S3" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T3" s="4" t="inlineStr">
+      <c r="T3" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U3" s="4" t="inlineStr">
+      <c r="U3" s="6" t="inlineStr">
         <is>
           <t>00:09:46</t>
         </is>
       </c>
-      <c r="V3" s="4" t="inlineStr">
+      <c r="V3" s="6" t="inlineStr">
         <is>
           <t>00:09:46</t>
         </is>
       </c>
-      <c r="W3" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X3" s="4" t="inlineStr">
+      <c r="W3" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X3" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y3" s="4" t="inlineStr">
+      <c r="Y3" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="5" t="n">
         <v>202302000479</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>03/02/2023 10:26</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
         <is>
           <t>03/02/2023 11:22</t>
         </is>
       </c>
-      <c r="I4" s="4" t="inlineStr">
+      <c r="I4" s="6" t="inlineStr">
         <is>
           <t>03/02/2023 11:30</t>
         </is>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="J4" s="6" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
+      <c r="K4" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L4" s="4" t="inlineStr">
+      <c r="L4" s="6" t="inlineStr">
         <is>
           <t>CONFIGURAR RAMAL NOVO - SETOR TRATAMENTO TERMICO</t>
         </is>
       </c>
-      <c r="M4" s="4" t="inlineStr">
+      <c r="M4" s="6" t="inlineStr">
         <is>
           <t>BOM DIA GENTILEZA CONFIGURAR O APARELHO O APARELHO DP10 PADRÃO IP. SEGUE AS INFORMAÇÕES: * NOME DO IDENTIFICADOR: TRATAMENTO TERMICO* RAMAL: VERIFICAR NÚMERO DISPONÍVEL PARA REGISTRO* IP: 192.168.25.103* DESATIVAR SEGUNDA CHAMADA* BLOQUEAR APENAS CHAMADAS INTERNACIONAIS (DDI)* SENHA ADMINISTRADOR: BASE* IDIOMA PORTUGUÊS* VERIFICAR ATUALIZAÇÃO DO FIRMWARE* VERIFICAR DATA E HORA NO APARELHO  FICO NO AGUARDO!!</t>
         </is>
       </c>
-      <c r="N4" s="4" t="inlineStr">
+      <c r="N4" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O4" s="4" t="inlineStr">
+      <c r="O4" s="6" t="inlineStr">
         <is>
           <t>FAB4</t>
         </is>
       </c>
-      <c r="P4" s="4" t="inlineStr">
+      <c r="P4" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q4" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R4" s="4" t="inlineStr">
+      <c r="Q4" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R4" s="6" t="inlineStr">
         <is>
           <t>REALIZADA CONFIGURAÇÕES CONFORME SOLICITADO PELO CLIENTE</t>
         </is>
       </c>
-      <c r="S4" s="4" t="inlineStr">
+      <c r="S4" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T4" s="4" t="inlineStr">
+      <c r="T4" s="6" t="inlineStr">
         <is>
           <t>00:35:00</t>
         </is>
       </c>
-      <c r="U4" s="4" t="inlineStr">
+      <c r="U4" s="6" t="inlineStr">
         <is>
           <t>00:21:24</t>
         </is>
       </c>
-      <c r="V4" s="4" t="inlineStr">
+      <c r="V4" s="6" t="inlineStr">
         <is>
           <t>00:56:24</t>
         </is>
       </c>
-      <c r="W4" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X4" s="4" t="inlineStr">
+      <c r="W4" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X4" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y4" s="4" t="inlineStr">
+      <c r="Y4" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="5" t="n">
         <v>202302000509</v>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>06/02/2023 13:37</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>06/02/2023 13:08</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="7" t="n">
         <v>44963.66666666666</v>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="H5" s="7" t="n">
         <v>44964.27291666667</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="7" t="n">
         <v>44966.27638888889</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="6" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K5" s="4" t="inlineStr">
+      <c r="K5" s="6" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L5" s="4" t="inlineStr">
+      <c r="L5" s="6" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN-CISER-SP</t>
         </is>
       </c>
-      <c r="M5" s="4" t="inlineStr">
+      <c r="M5" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">VPN TUNNEL VPN-CISER-SPIP: 177.52.23.2REMOTE: 200.223.122.146 </t>
         </is>
       </c>
-      <c r="N5" s="4" t="inlineStr">
+      <c r="N5" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O5" s="4" t="inlineStr">
+      <c r="O5" s="6" t="inlineStr">
         <is>
           <t>SÃO PAULO</t>
         </is>
       </c>
-      <c r="P5" s="4" t="inlineStr">
+      <c r="P5" s="6" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q5" s="4" t="inlineStr">
+      <c r="Q5" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="R5" s="6" t="inlineStr">
         <is>
           <t>VPN NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S5" s="4" t="inlineStr">
+      <c r="S5" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T5" s="4" t="inlineStr">
+      <c r="T5" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U5" s="4" t="inlineStr">
+      <c r="U5" s="6" t="inlineStr">
         <is>
           <t>09:59:26</t>
         </is>
       </c>
-      <c r="V5" s="4" t="inlineStr">
+      <c r="V5" s="6" t="inlineStr">
         <is>
           <t>09:59:26</t>
         </is>
       </c>
-      <c r="W5" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X5" s="4" t="inlineStr">
+      <c r="W5" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X5" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="Y5" s="6" t="inlineStr">
         <is>
           <t>02:52:00</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="5" t="n">
         <v>202302000519</v>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>06/02/2023 17:52</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H6" s="5" t="n">
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H6" s="7" t="n">
         <v>44964.41388888889</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="7" t="n">
         <v>44966.41875</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J6" s="6" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K6" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L6" s="6" t="inlineStr">
         <is>
           <t>RAMAL 1920 REDIRECIONANDO CHAMADAS.</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M6" s="6" t="inlineStr">
         <is>
           <t>BOA TARDE, FAVOR VERIFICAR RAMAL 1920 POIS ESTA DIRECIONANDO AS CHAMADAS PARA O 1906, TESTADO FACILIDADE 104 SEM SUCESSO.</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N6" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O6" s="6" t="inlineStr">
         <is>
           <t>SÃO PAULO</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P6" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="Q6" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R6" s="6" t="inlineStr">
         <is>
           <t>ENCONTRADO RAMAIS DUPLICADOS NA REDE, APÓS DESLIGAR UM APARELHO AS LIGAÇÕES VOLTARAM</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S6" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T6" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U6" s="6" t="inlineStr">
         <is>
           <t>05:44:59</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V6" s="6" t="inlineStr">
         <is>
           <t>05:44:59</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="W6" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X6" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y6" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="5" t="n">
         <v>202302000521</v>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>TOPOLOGIA/RELATÓRIO/ANÁLISE DE TOIP</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>07/02/2023 08:59</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="n">
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H7" s="7" t="n">
         <v>44981.71666666667</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="7" t="n">
         <v>44983.75902777778</v>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="J7" s="6" t="inlineStr">
         <is>
           <t>TIAGO BORBA</t>
         </is>
       </c>
-      <c r="K7" s="4" t="inlineStr">
+      <c r="K7" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L7" s="4" t="inlineStr">
+      <c r="L7" s="6" t="inlineStr">
         <is>
           <t>RELATÓRIO DE LIGAÇÕES RAMAL 3511 - PORTARIA MATRIZ</t>
         </is>
       </c>
-      <c r="M7" s="4" t="inlineStr">
+      <c r="M7" s="6" t="inlineStr">
         <is>
           <t>BOM DIA,PRECISAMOS DO RELATÓRIO DE LIGAÇÕES FEITAS DO RAMAL 3511 , ( PORTARIA I ) DO DIA 31/01   DAS 18:00 HS AS 00:00 HSENVIAR RELATÓRIO NESSE MAIL.OBRIGADO !ATTBORBA</t>
         </is>
       </c>
-      <c r="N7" s="4" t="inlineStr">
+      <c r="N7" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O7" s="4" t="inlineStr">
+      <c r="O7" s="6" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P7" s="4" t="inlineStr">
+      <c r="P7" s="6" t="inlineStr">
         <is>
           <t>SU</t>
         </is>
       </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
+      <c r="Q7" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R7" s="6" t="inlineStr">
         <is>
           <t>RELATÓRIO DE LIGAÇÕES DISPONIBILIZADO</t>
         </is>
       </c>
-      <c r="S7" s="4" t="inlineStr">
+      <c r="S7" s="6" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T7" s="4" t="inlineStr">
+      <c r="T7" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U7" s="4" t="inlineStr">
+      <c r="U7" s="6" t="inlineStr">
         <is>
           <t>13:33:33</t>
         </is>
       </c>
-      <c r="V7" s="4" t="inlineStr">
+      <c r="V7" s="6" t="inlineStr">
         <is>
           <t>13:33:33</t>
         </is>
       </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
+      <c r="W7" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X7" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y7" s="4" t="inlineStr">
+      <c r="Y7" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="5" t="n">
         <v>202302000536</v>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    FALHA NA INTEGRAÇÃO CONTACT CENTER WHATSAPP</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>07/02/2023 15:11</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="6" t="inlineStr">
         <is>
           <t>07/02/2023 15:11</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="G8" s="6" t="inlineStr">
         <is>
           <t>07/02/2023 15:50</t>
         </is>
       </c>
-      <c r="H8" s="4" t="inlineStr">
+      <c r="H8" s="6" t="inlineStr">
         <is>
           <t>07/02/2023 15:50</t>
         </is>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="I8" s="7" t="n">
         <v>44966.69166666667</v>
       </c>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="J8" s="6" t="inlineStr">
         <is>
           <t>TIAGO BORBA</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
+      <c r="K8" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L8" s="4" t="inlineStr">
+      <c r="L8" s="6" t="inlineStr">
         <is>
           <t>URGENTE - ATENDIMENTO XCONTACT - WHATS</t>
         </is>
       </c>
-      <c r="M8" s="4" t="inlineStr">
+      <c r="M8" s="6" t="inlineStr">
         <is>
           <t>FAVOR DAR PRIORIDADE AO PROBLEMA RELATADO ABAIXO.MESMO DETRO DA JANELA DE 24HRS SISTEMA INFORMANDO QUE NÃO É POSSÍVEL FALAR COM CLIENTE POIS A JANELA ESTA FECHADA[CID:IMAGE001.PNG@01D93B06.51A942B0]ATTBORBA</t>
         </is>
       </c>
-      <c r="N8" s="4" t="inlineStr">
+      <c r="N8" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O8" s="4" t="inlineStr">
+      <c r="O8" s="6" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P8" s="4" t="inlineStr">
+      <c r="P8" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q8" s="4" t="inlineStr">
+      <c r="Q8" s="6" t="inlineStr">
         <is>
           <t>REDE INTERNA DO CLIENTE</t>
         </is>
       </c>
-      <c r="R8" s="4" t="inlineStr">
+      <c r="R8" s="6" t="inlineStr">
         <is>
           <t>CHAMADO SENDO ENCERRADO, POIS O CLIENTE INFORMOU QUE O PROBLEMA ESTAVA DO LADO DELES.JA FOI SOLUCIONADO PELO CLIENTE.{LUIZ CARLOS}</t>
         </is>
       </c>
-      <c r="S8" s="4" t="inlineStr">
+      <c r="S8" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T8" s="4" t="inlineStr">
+      <c r="T8" s="6" t="inlineStr">
         <is>
           <t>00:17:00</t>
         </is>
       </c>
-      <c r="U8" s="4" t="inlineStr">
+      <c r="U8" s="6" t="inlineStr">
         <is>
           <t>00:21:23</t>
         </is>
       </c>
-      <c r="V8" s="4" t="inlineStr">
+      <c r="V8" s="6" t="inlineStr">
         <is>
           <t>00:38:23</t>
         </is>
       </c>
-      <c r="W8" s="4" t="n">
+      <c r="W8" s="6" t="n">
         <v>7942</v>
       </c>
-      <c r="X8" s="4" t="inlineStr">
+      <c r="X8" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y8" s="4" t="inlineStr">
+      <c r="Y8" s="6" t="inlineStr">
         <is>
           <t>00:39:00</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="5" t="n">
         <v>202302000537</v>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="6" t="inlineStr">
         <is>
           <t>07/02/2023 16:20</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H9" s="4" t="inlineStr">
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
         <is>
           <t>07/02/2023 16:30</t>
         </is>
       </c>
-      <c r="I9" s="4" t="inlineStr">
+      <c r="I9" s="6" t="inlineStr">
         <is>
           <t>07/02/2023 17:07</t>
         </is>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="J9" s="6" t="inlineStr">
         <is>
           <t>MURILO HORST</t>
         </is>
       </c>
-      <c r="K9" s="4" t="inlineStr">
+      <c r="K9" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L9" s="4" t="inlineStr">
+      <c r="L9" s="6" t="inlineStr">
         <is>
           <t>BLOQUEAR LIGAÇÃO DE NÚMEROS ESPECÍFICOS</t>
         </is>
       </c>
-      <c r="M9" s="4" t="inlineStr">
+      <c r="M9" s="6" t="inlineStr">
         <is>
           <t>BOA TARDE, FAVOR BLOQUEAR LIGAÇÕES VINDAS DOS NÚMEROS ABAIXO NA CENTRAL DA CISER MATRIZ.47349489444734275544</t>
         </is>
       </c>
-      <c r="N9" s="4" t="inlineStr">
+      <c r="N9" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O9" s="4" t="inlineStr">
+      <c r="O9" s="6" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P9" s="4" t="inlineStr">
+      <c r="P9" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q9" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R9" s="4" t="inlineStr">
+      <c r="Q9" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R9" s="6" t="inlineStr">
         <is>
           <t>BLOQUEIO DE ENTRADAS DE LIGAÇOES DE NUMEROS ESPECIFICOS.</t>
         </is>
       </c>
-      <c r="S9" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="T9" s="4" t="inlineStr">
+      <c r="S9" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="T9" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U9" s="4" t="inlineStr">
+      <c r="U9" s="6" t="inlineStr">
         <is>
           <t>00:09:56</t>
         </is>
       </c>
-      <c r="V9" s="4" t="inlineStr">
+      <c r="V9" s="6" t="inlineStr">
         <is>
           <t>00:09:56</t>
         </is>
       </c>
-      <c r="W9" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X9" s="4" t="inlineStr">
+      <c r="W9" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X9" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y9" s="4" t="inlineStr">
+      <c r="Y9" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="5" t="n">
         <v>202302000547</v>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    ERB INOPERANTE</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 10:39</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 10:35</t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr">
+      <c r="G10" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 10:47</t>
         </is>
       </c>
-      <c r="H10" s="4" t="inlineStr">
+      <c r="H10" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 10:52</t>
         </is>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="7" t="n">
         <v>44967.45347222222</v>
       </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="J10" s="6" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K10" s="4" t="inlineStr">
+      <c r="K10" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L10" s="4" t="inlineStr">
+      <c r="L10" s="6" t="inlineStr">
         <is>
           <t>CONTROLLER | DECT - CISER - UNIDADE CDC</t>
         </is>
       </c>
-      <c r="M10" s="4" t="inlineStr">
+      <c r="M10" s="6" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=55634&amp;EVENTID=381214569</t>
         </is>
       </c>
-      <c r="N10" s="4" t="inlineStr">
+      <c r="N10" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O10" s="4" t="inlineStr">
+      <c r="O10" s="6" t="inlineStr">
         <is>
           <t>CDC</t>
         </is>
       </c>
-      <c r="P10" s="4" t="inlineStr">
+      <c r="P10" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q10" s="4" t="inlineStr">
+      <c r="Q10" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R10" s="4" t="inlineStr">
+      <c r="R10" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">CONTROLADORA VOLTOU SEM INTERVENÇÃO DA BASE </t>
         </is>
       </c>
-      <c r="S10" s="4" t="inlineStr">
+      <c r="S10" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T10" s="4" t="inlineStr">
+      <c r="T10" s="6" t="inlineStr">
         <is>
           <t>00:12:00</t>
         </is>
       </c>
-      <c r="U10" s="4" t="inlineStr">
+      <c r="U10" s="6" t="inlineStr">
         <is>
           <t>00:01:23</t>
         </is>
       </c>
-      <c r="V10" s="4" t="inlineStr">
+      <c r="V10" s="6" t="inlineStr">
         <is>
           <t>00:13:23</t>
         </is>
       </c>
-      <c r="W10" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X10" s="4" t="inlineStr">
+      <c r="W10" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X10" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y10" s="4" t="inlineStr">
+      <c r="Y10" s="6" t="inlineStr">
         <is>
           <t>00:12:00</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n">
+      <c r="A11" s="5" t="n">
         <v>202302000549</v>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 14:17</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G11" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H11" s="4" t="inlineStr">
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G11" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H11" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 15:55</t>
         </is>
       </c>
-      <c r="I11" s="4" t="inlineStr">
+      <c r="I11" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 16:25</t>
         </is>
       </c>
-      <c r="J11" s="4" t="inlineStr">
+      <c r="J11" s="6" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K11" s="4" t="inlineStr">
+      <c r="K11" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L11" s="4" t="inlineStr">
+      <c r="L11" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> AJUSTAR IDENTIFICAÇÃO VISOR - RAMAL 3963</t>
         </is>
       </c>
-      <c r="M11" s="4" t="inlineStr">
+      <c r="M11" s="6" t="inlineStr">
         <is>
           <t>AJUSTAR IDENTIFICADOR DO VISOR DO RAMAL  (47) 3441-3963 PARA "JOSÉ LIMA".</t>
         </is>
       </c>
-      <c r="N11" s="4" t="inlineStr">
+      <c r="N11" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O11" s="4" t="inlineStr">
+      <c r="O11" s="6" t="inlineStr">
         <is>
           <t>FAB4</t>
         </is>
       </c>
-      <c r="P11" s="4" t="inlineStr">
+      <c r="P11" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q11" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R11" s="4" t="inlineStr">
+      <c r="Q11" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R11" s="6" t="inlineStr">
         <is>
           <t>ALTERAÇÃO DE DISPLAY NAME</t>
         </is>
       </c>
-      <c r="S11" s="4" t="inlineStr">
+      <c r="S11" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T11" s="4" t="inlineStr">
+      <c r="T11" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U11" s="4" t="inlineStr">
+      <c r="U11" s="6" t="inlineStr">
         <is>
           <t>01:37:57</t>
         </is>
       </c>
-      <c r="V11" s="4" t="inlineStr">
+      <c r="V11" s="6" t="inlineStr">
         <is>
           <t>01:37:57</t>
         </is>
       </c>
-      <c r="W11" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X11" s="4" t="inlineStr">
+      <c r="W11" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X11" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y11" s="4" t="inlineStr">
+      <c r="Y11" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="5" t="n">
         <v>202302000559</v>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D12" s="4" t="inlineStr">
+      <c r="D12" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="6" t="inlineStr">
         <is>
           <t>09/02/2023 09:40</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G12" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H12" s="4" t="inlineStr">
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H12" s="6" t="inlineStr">
         <is>
           <t>09/02/2023 10:21</t>
         </is>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="I12" s="7" t="n">
         <v>44968.50555555556</v>
       </c>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="J12" s="6" t="inlineStr">
         <is>
           <t>BRUNO HENRIQUE</t>
         </is>
       </c>
-      <c r="K12" s="4" t="inlineStr">
+      <c r="K12" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L12" s="4" t="inlineStr">
+      <c r="L12" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">CONFIGURAR RAMAL NO TELEFONE FIXO </t>
         </is>
       </c>
-      <c r="M12" s="4" t="inlineStr">
+      <c r="M12" s="6" t="inlineStr">
         <is>
           <t>TELEFONE FIXO 192.168.28.54 CONFIGURAR O RAMAL 681 EM NOME DE: EDUARDA APARECIDA CAMPOS</t>
         </is>
       </c>
-      <c r="N12" s="4" t="inlineStr">
+      <c r="N12" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O12" s="4" t="inlineStr">
+      <c r="O12" s="6" t="inlineStr">
         <is>
           <t>SARZEDO</t>
         </is>
       </c>
-      <c r="P12" s="4" t="inlineStr">
+      <c r="P12" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q12" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R12" s="4" t="inlineStr">
+      <c r="Q12" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R12" s="6" t="inlineStr">
         <is>
           <t>EQUIPAMENTO CONFIGURADO CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S12" s="4" t="inlineStr">
+      <c r="S12" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T12" s="4" t="inlineStr">
+      <c r="T12" s="6" t="inlineStr">
         <is>
           <t>00:22:00</t>
         </is>
       </c>
-      <c r="U12" s="4" t="inlineStr">
+      <c r="U12" s="6" t="inlineStr">
         <is>
           <t>00:18:29</t>
         </is>
       </c>
-      <c r="V12" s="4" t="inlineStr">
+      <c r="V12" s="6" t="inlineStr">
         <is>
           <t>00:40:29</t>
         </is>
       </c>
-      <c r="W12" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X12" s="4" t="inlineStr">
+      <c r="W12" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X12" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y12" s="4" t="inlineStr">
+      <c r="Y12" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="n">
+      <c r="A13" s="5" t="n">
         <v>202302000561</v>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="D13" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="6" t="inlineStr">
         <is>
           <t>09/02/2023 10:41</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G13" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H13" s="4" t="inlineStr">
+      <c r="F13" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H13" s="6" t="inlineStr">
         <is>
           <t>09/02/2023 10:59</t>
         </is>
       </c>
-      <c r="I13" s="5" t="n">
+      <c r="I13" s="7" t="n">
         <v>44968.50555555556</v>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="J13" s="6" t="inlineStr">
         <is>
           <t>BRUNO HENRIQUE</t>
         </is>
       </c>
-      <c r="K13" s="4" t="inlineStr">
+      <c r="K13" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L13" s="4" t="inlineStr">
+      <c r="L13" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">CONFIGURAR RAMAL - 694 </t>
         </is>
       </c>
-      <c r="M13" s="4" t="inlineStr">
+      <c r="M13" s="6" t="inlineStr">
         <is>
           <t>192.168.28.25 COM O NÚMERO 694 EMERSON DIAS FERNANDES. JÁ APROVEITANDO O MEU RAMAL 688 ESTÁ CHAMANDO NOS OUTROS DISPOSITIVOS COM O NOME DE HELBERTH AINDA, PRECISO QUE SEJA CONFIGURADO EM NOME DE BRUNO REIS.</t>
         </is>
       </c>
-      <c r="N13" s="4" t="inlineStr">
+      <c r="N13" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O13" s="4" t="inlineStr">
+      <c r="O13" s="6" t="inlineStr">
         <is>
           <t>SARZEDO</t>
         </is>
       </c>
-      <c r="P13" s="4" t="inlineStr">
+      <c r="P13" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q13" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R13" s="4" t="inlineStr">
+      <c r="Q13" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R13" s="6" t="inlineStr">
         <is>
           <t>REALIZADO A CONFIGURAÇÃO DO RAMAL 694 E ALTERADO O NOME DO RAMAL 688 PARA BRUNO REIS CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S13" s="4" t="inlineStr">
+      <c r="S13" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T13" s="4" t="inlineStr">
+      <c r="T13" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U13" s="4" t="inlineStr">
+      <c r="U13" s="6" t="inlineStr">
         <is>
           <t>00:17:35</t>
         </is>
       </c>
-      <c r="V13" s="4" t="inlineStr">
+      <c r="V13" s="6" t="inlineStr">
         <is>
           <t>00:17:35</t>
         </is>
       </c>
-      <c r="W13" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X13" s="4" t="inlineStr">
+      <c r="W13" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X13" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y13" s="4" t="inlineStr">
+      <c r="Y13" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="5" t="n">
         <v>202302000563</v>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D14" s="4" t="inlineStr">
+      <c r="D14" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="6" t="inlineStr">
         <is>
           <t>09/02/2023 11:26</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G14" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H14" s="4" t="inlineStr">
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G14" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H14" s="6" t="inlineStr">
         <is>
           <t>09/02/2023 17:01</t>
         </is>
       </c>
-      <c r="I14" s="5" t="n">
+      <c r="I14" s="7" t="n">
         <v>44968.77222222222</v>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="J14" s="6" t="inlineStr">
         <is>
           <t>BRUNO HENRIQUE</t>
         </is>
       </c>
-      <c r="K14" s="4" t="inlineStr">
+      <c r="K14" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L14" s="4" t="inlineStr">
+      <c r="L14" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">ERRATA - RAMAIS </t>
         </is>
       </c>
-      <c r="M14" s="4" t="inlineStr">
+      <c r="M14" s="6" t="inlineStr">
         <is>
           <t>PESSOA, DESCULPA A CONFUSÃO, PORÉM A INFORMAÇÃO FOI ME PASSADA DE FORMA ERRADA. TELEFONE DE IP:  192.168.28.25 681 TELEFONE DE IP: 192.168.28.54 694 HOUVE UMA FALHA DE COMUNICAÇÃO INTERNET AQUI, GENTILEZA FAZER A NOVA CORREÇÃO</t>
         </is>
       </c>
-      <c r="N14" s="4" t="inlineStr">
+      <c r="N14" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O14" s="4" t="inlineStr">
+      <c r="O14" s="6" t="inlineStr">
         <is>
           <t>SARZEDO</t>
         </is>
       </c>
-      <c r="P14" s="4" t="inlineStr">
+      <c r="P14" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q14" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R14" s="4" t="inlineStr">
+      <c r="Q14" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R14" s="6" t="inlineStr">
         <is>
           <t>ALTERAÇÃO DOS RAMAIS NOS EQUIPAMENTOS, REALIZADO CONFORME SOLICITADO.{LUIZ CARLOS}</t>
         </is>
       </c>
-      <c r="S14" s="4" t="inlineStr">
+      <c r="S14" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T14" s="4" t="inlineStr">
+      <c r="T14" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U14" s="4" t="inlineStr">
+      <c r="U14" s="6" t="inlineStr">
         <is>
           <t>05:34:57</t>
         </is>
       </c>
-      <c r="V14" s="4" t="inlineStr">
+      <c r="V14" s="6" t="inlineStr">
         <is>
           <t>05:34:57</t>
         </is>
       </c>
-      <c r="W14" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X14" s="4" t="inlineStr">
+      <c r="W14" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X14" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y14" s="4" t="inlineStr">
+      <c r="Y14" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="5" t="n">
         <v>202302000572</v>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="D15" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    E1 INOPERANTE</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="6" t="inlineStr">
         <is>
           <t>09/02/2023 14:31</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="6" t="inlineStr">
         <is>
           <t>09/02/2023 14:31</t>
         </is>
       </c>
-      <c r="G15" s="4" t="inlineStr">
+      <c r="G15" s="6" t="inlineStr">
         <is>
           <t>09/02/2023 15:03</t>
         </is>
       </c>
-      <c r="H15" s="4" t="inlineStr">
+      <c r="H15" s="6" t="inlineStr">
         <is>
           <t>09/02/2023 16:56</t>
         </is>
       </c>
-      <c r="I15" s="5" t="n">
+      <c r="I15" s="7" t="n">
         <v>44968.77083333334</v>
       </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="J15" s="6" t="inlineStr">
         <is>
           <t>BRUNO HENRIQUE</t>
         </is>
       </c>
-      <c r="K15" s="4" t="inlineStr">
+      <c r="K15" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L15" s="4" t="inlineStr">
+      <c r="L15" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">URGENTE - DECT MÓVEIS INDIPONÍVEIS </t>
         </is>
       </c>
-      <c r="M15" s="4" t="inlineStr">
+      <c r="M15" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">BOA TARDE,  TODOS OS RAMAIS MÓVEIS DA UNIDADE ESTÃO INDISPONÍVEL, GENTILEZA VERIFICAR.   </t>
         </is>
       </c>
-      <c r="N15" s="4" t="inlineStr">
+      <c r="N15" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O15" s="4" t="inlineStr">
+      <c r="O15" s="6" t="inlineStr">
         <is>
           <t>SARZEDO</t>
         </is>
       </c>
-      <c r="P15" s="4" t="inlineStr">
+      <c r="P15" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q15" s="4" t="inlineStr">
+      <c r="Q15" s="6" t="inlineStr">
         <is>
           <t>REDE INTERNA DO CLIENTE</t>
         </is>
       </c>
-      <c r="R15" s="4" t="inlineStr">
+      <c r="R15" s="6" t="inlineStr">
         <is>
           <t>CHAMADO SENDO ENCERRADO, APOS O CLIENTE REINICIAR OS EQUIPAMENTOS E VOLTANDO A REGISTRAR NORMALMENTE.{LUIZ CARLOS}</t>
         </is>
       </c>
-      <c r="S15" s="4" t="inlineStr">
+      <c r="S15" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T15" s="4" t="inlineStr">
+      <c r="T15" s="6" t="inlineStr">
         <is>
           <t>02:00:00</t>
         </is>
       </c>
-      <c r="U15" s="4" t="inlineStr">
+      <c r="U15" s="6" t="inlineStr">
         <is>
           <t>00:25:11</t>
         </is>
       </c>
-      <c r="V15" s="4" t="inlineStr">
+      <c r="V15" s="6" t="inlineStr">
         <is>
           <t>02:25:11</t>
         </is>
       </c>
-      <c r="W15" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X15" s="4" t="inlineStr">
+      <c r="W15" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X15" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y15" s="4" t="inlineStr">
+      <c r="Y15" s="6" t="inlineStr">
         <is>
           <t>00:32:00</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="5" t="n">
         <v>202302000603</v>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D16" s="4" t="inlineStr">
+      <c r="D16" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="6" t="inlineStr">
         <is>
           <t>11/02/2023 13:32</t>
         </is>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="7" t="n">
         <v>44968.55763888889</v>
       </c>
-      <c r="G16" s="4" t="inlineStr">
+      <c r="G16" s="6" t="inlineStr">
         <is>
           <t>11/02/2023 13:37</t>
         </is>
       </c>
-      <c r="H16" s="4" t="inlineStr">
+      <c r="H16" s="6" t="inlineStr">
         <is>
           <t>11/02/2023 14:22</t>
         </is>
       </c>
-      <c r="I16" s="5" t="n">
+      <c r="I16" s="7" t="n">
         <v>44970.69513888889</v>
       </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="J16" s="6" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K16" s="4" t="inlineStr">
+      <c r="K16" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L16" s="4" t="inlineStr">
+      <c r="L16" s="6" t="inlineStr">
         <is>
           <t>##CONTROLLER ERB | DECT - CISER - UNIDADE FAB4</t>
         </is>
       </c>
-      <c r="M16" s="4" t="inlineStr">
+      <c r="M16" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> SYSTEM NAME: ERB | DECT - CISER - UNIDADE FAB4IP: 192.168.25.207DATA: 11/02/2023 ÀS 13:23DETAIL: HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=55625&amp;EVENTID=383518172 </t>
         </is>
       </c>
-      <c r="N16" s="4" t="inlineStr">
+      <c r="N16" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O16" s="4" t="inlineStr">
+      <c r="O16" s="6" t="inlineStr">
         <is>
           <t>FAB4</t>
         </is>
       </c>
-      <c r="P16" s="4" t="inlineStr">
+      <c r="P16" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q16" s="4" t="inlineStr">
+      <c r="Q16" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R16" s="4" t="inlineStr">
+      <c r="R16" s="6" t="inlineStr">
         <is>
           <t>VERIFICADO QUE O EQUIPAMENTO NORMALIZOU EM NOSSO MONITORAMENTO, CONFORME EVIDÊNCIAS EM ANEXO AO CHAMADO. ENVIADO E-MAIL AO CLIENTE, INFORMANDO NORMALIZANDO DO SERVIÇO.{DIEGO SOARES}</t>
         </is>
       </c>
-      <c r="S16" s="4" t="inlineStr">
+      <c r="S16" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T16" s="4" t="inlineStr">
+      <c r="T16" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U16" s="4" t="inlineStr">
+      <c r="U16" s="6" t="inlineStr">
         <is>
           <t>00:50:41</t>
         </is>
       </c>
-      <c r="V16" s="4" t="inlineStr">
+      <c r="V16" s="6" t="inlineStr">
         <is>
           <t>00:50:41</t>
         </is>
       </c>
-      <c r="W16" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X16" s="4" t="inlineStr">
+      <c r="W16" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X16" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y16" s="4" t="inlineStr">
+      <c r="Y16" s="6" t="inlineStr">
         <is>
           <t>00:14:00</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n">
+      <c r="A17" s="5" t="n">
         <v>202302000609</v>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
+      <c r="D17" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="6" t="inlineStr">
         <is>
           <t>12/02/2023 16:16</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="6" t="inlineStr">
         <is>
           <t>12/02/2023 15:24</t>
         </is>
       </c>
-      <c r="G17" s="5" t="n">
+      <c r="G17" s="7" t="n">
         <v>44970.26597222222</v>
       </c>
-      <c r="H17" s="5" t="n">
+      <c r="H17" s="7" t="n">
         <v>44970.39513888889</v>
       </c>
-      <c r="I17" s="5" t="n">
+      <c r="I17" s="7" t="n">
         <v>44972.46736111111</v>
       </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="J17" s="6" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K17" s="4" t="inlineStr">
+      <c r="K17" s="6" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L17" s="4" t="inlineStr">
+      <c r="L17" s="6" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN-CISER-SP IS DOWN</t>
         </is>
       </c>
-      <c r="M17" s="4" t="inlineStr">
+      <c r="M17" s="6" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN-CISER-SP IS DOWN IP:  200.223.122.146 HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=58957&amp;EVENTID=384361543</t>
         </is>
       </c>
-      <c r="N17" s="4" t="inlineStr">
+      <c r="N17" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O17" s="4" t="inlineStr">
+      <c r="O17" s="6" t="inlineStr">
         <is>
           <t>SÃO PAULO</t>
         </is>
       </c>
-      <c r="P17" s="4" t="inlineStr">
+      <c r="P17" s="6" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q17" s="4" t="inlineStr">
+      <c r="Q17" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R17" s="4" t="inlineStr">
+      <c r="R17" s="6" t="inlineStr">
         <is>
           <t>VPN NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S17" s="4" t="inlineStr">
+      <c r="S17" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T17" s="4" t="inlineStr">
+      <c r="T17" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U17" s="4" t="inlineStr">
+      <c r="U17" s="6" t="inlineStr">
         <is>
           <t>01:25:32</t>
         </is>
       </c>
-      <c r="V17" s="4" t="inlineStr">
+      <c r="V17" s="6" t="inlineStr">
         <is>
           <t>01:25:32</t>
         </is>
       </c>
-      <c r="W17" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X17" s="4" t="inlineStr">
+      <c r="W17" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X17" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y17" s="4" t="inlineStr">
+      <c r="Y17" s="6" t="inlineStr">
         <is>
           <t>14:59:00</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="5" t="n">
         <v>202302000611</v>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D18" s="4" t="inlineStr">
+      <c r="D18" s="6" t="inlineStr">
         <is>
           <t>INOPERÂNCIA TOTAL DE TOIP</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="6" t="inlineStr">
         <is>
           <t>12/02/2023 17:28</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" s="6" t="inlineStr">
         <is>
           <t>12/02/2023 16:59</t>
         </is>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="G18" s="7" t="n">
         <v>44970.83680555555</v>
       </c>
-      <c r="H18" s="5" t="n">
+      <c r="H18" s="7" t="n">
         <v>44970.27291666667</v>
       </c>
-      <c r="I18" s="5" t="n">
+      <c r="I18" s="7" t="n">
         <v>44972.27569444444</v>
       </c>
-      <c r="J18" s="4" t="inlineStr">
+      <c r="J18" s="6" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K18" s="4" t="inlineStr">
+      <c r="K18" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L18" s="4" t="inlineStr">
+      <c r="L18" s="6" t="inlineStr">
         <is>
           <t>##CALL CENTER  | X5 CONTACT CENTER CIJUN</t>
         </is>
       </c>
-      <c r="M18" s="4" t="inlineStr">
+      <c r="M18" s="6" t="inlineStr">
         <is>
           <t>SYSTEM NAME: CALL | XCONTACT CIJUNIP:10.21.15.201DATA: 12/02/2023 ÀS 16:59DETAIL: HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=55624&amp;EVENTID=384411602</t>
         </is>
       </c>
-      <c r="N18" s="4" t="inlineStr">
+      <c r="N18" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O18" s="4" t="inlineStr">
+      <c r="O18" s="6" t="inlineStr">
         <is>
           <t>JUNDIAI</t>
         </is>
       </c>
-      <c r="P18" s="4" t="inlineStr">
+      <c r="P18" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q18" s="4" t="inlineStr">
+      <c r="Q18" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R18" s="4" t="inlineStr">
+      <c r="R18" s="6" t="inlineStr">
         <is>
           <t>ALARME NORMALIZADO SEM INTERVENÇÃO TÉCNICA DA BASE</t>
         </is>
       </c>
-      <c r="S18" s="4" t="inlineStr">
+      <c r="S18" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T18" s="4" t="inlineStr">
+      <c r="T18" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U18" s="4" t="inlineStr">
+      <c r="U18" s="6" t="inlineStr">
         <is>
           <t>00:12:58</t>
         </is>
       </c>
-      <c r="V18" s="4" t="inlineStr">
+      <c r="V18" s="6" t="inlineStr">
         <is>
           <t>00:12:58</t>
         </is>
       </c>
-      <c r="W18" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X18" s="4" t="inlineStr">
+      <c r="W18" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X18" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y18" s="5" t="n">
+      <c r="Y18" s="7" t="n">
         <v>1.129166666666667</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n">
+      <c r="A19" s="5" t="n">
         <v>202302000623</v>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="D19" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="6" t="inlineStr">
         <is>
           <t>13/02/2023 14:49</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G19" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H19" s="5" t="n">
+      <c r="F19" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H19" s="7" t="n">
         <v>44971.70416666667</v>
       </c>
-      <c r="I19" s="5" t="n">
+      <c r="I19" s="7" t="n">
         <v>44973.725</v>
       </c>
-      <c r="J19" s="4" t="inlineStr">
+      <c r="J19" s="6" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K19" s="4" t="inlineStr">
+      <c r="K19" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L19" s="4" t="inlineStr">
+      <c r="L19" s="6" t="inlineStr">
         <is>
           <t>RAMAL 3991 - NÃO PERMITE PUXAR LIGAÇÕES</t>
         </is>
       </c>
-      <c r="M19" s="4" t="inlineStr">
+      <c r="M19" s="6" t="inlineStr">
         <is>
           <t>BOA TARDE, FAVOR VERIFICAR CONFIGURAÇÃO DO RAMAL 3991 POIS OUTROS RAMAIS NO SETOR NÃO CONSEGUEM PUXAR LIGAÇÕES DIRECIONADA A ESTE RAMAL. EX. 3704</t>
         </is>
       </c>
-      <c r="N19" s="4" t="inlineStr">
+      <c r="N19" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O19" s="4" t="inlineStr">
+      <c r="O19" s="6" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P19" s="4" t="inlineStr">
+      <c r="P19" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q19" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R19" s="4" t="inlineStr">
+      <c r="Q19" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R19" s="6" t="inlineStr">
         <is>
           <t>REALIZADO A CONFIGURAÇÃO E CONFORME VALIDADO PELO CLIENTE O CHAMADO ESTÁ SENDO ENCERRADO</t>
         </is>
       </c>
-      <c r="S19" s="4" t="inlineStr">
+      <c r="S19" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T19" s="4" t="inlineStr">
+      <c r="T19" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U19" s="4" t="inlineStr">
+      <c r="U19" s="6" t="inlineStr">
         <is>
           <t>07:29:35</t>
         </is>
       </c>
-      <c r="V19" s="4" t="inlineStr">
+      <c r="V19" s="6" t="inlineStr">
         <is>
           <t>07:29:35</t>
         </is>
       </c>
-      <c r="W19" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X19" s="4" t="inlineStr">
+      <c r="W19" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X19" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y19" s="4" t="inlineStr">
+      <c r="Y19" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n">
+      <c r="A20" s="5" t="n">
         <v>202302000640</v>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D20" s="4" t="inlineStr">
+      <c r="D20" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E20" s="6" t="inlineStr">
         <is>
           <t>14/02/2023 15:13</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G20" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H20" s="4" t="inlineStr">
+      <c r="F20" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G20" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H20" s="6" t="inlineStr">
         <is>
           <t>14/02/2023 17:04</t>
         </is>
       </c>
-      <c r="I20" s="5" t="n">
+      <c r="I20" s="7" t="n">
         <v>44973.725</v>
       </c>
-      <c r="J20" s="4" t="inlineStr">
+      <c r="J20" s="6" t="inlineStr">
         <is>
           <t>BRUNO HENRIQUE</t>
         </is>
       </c>
-      <c r="K20" s="4" t="inlineStr">
+      <c r="K20" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L20" s="4" t="inlineStr">
+      <c r="L20" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">NOME NOS RAMAIS </t>
         </is>
       </c>
-      <c r="M20" s="4" t="inlineStr">
+      <c r="M20" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">CISER SARZEDO BOA TARDE,  GENTILEZA COLOCA O TELEFONE DE NÚMERO 673 COM O NOME DE GUILHERME FONTAN MULTARI  </t>
         </is>
       </c>
-      <c r="N20" s="4" t="inlineStr">
+      <c r="N20" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O20" s="4" t="inlineStr">
+      <c r="O20" s="6" t="inlineStr">
         <is>
           <t>SARZEDO</t>
         </is>
       </c>
-      <c r="P20" s="4" t="inlineStr">
+      <c r="P20" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q20" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R20" s="4" t="inlineStr">
+      <c r="Q20" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R20" s="6" t="inlineStr">
         <is>
           <t>REALIZADO A CONFIGURAÇÃO DA ALTERAÇÃO DA MUDANÇA DO NOME CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S20" s="4" t="inlineStr">
+      <c r="S20" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T20" s="4" t="inlineStr">
+      <c r="T20" s="6" t="inlineStr">
         <is>
           <t>00:28:00</t>
         </is>
       </c>
-      <c r="U20" s="4" t="inlineStr">
+      <c r="U20" s="6" t="inlineStr">
         <is>
           <t>01:23:06</t>
         </is>
       </c>
-      <c r="V20" s="4" t="inlineStr">
+      <c r="V20" s="6" t="inlineStr">
         <is>
           <t>01:51:06</t>
         </is>
       </c>
-      <c r="W20" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X20" s="4" t="inlineStr">
+      <c r="W20" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X20" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y20" s="4" t="inlineStr">
+      <c r="Y20" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n">
+      <c r="A21" s="5" t="n">
         <v>202302000659</v>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D21" s="4" t="inlineStr">
+      <c r="D21" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E21" s="6" t="inlineStr">
         <is>
           <t>15/02/2023 16:09</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G21" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H21" s="5" t="n">
+      <c r="F21" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G21" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H21" s="7" t="n">
         <v>44973.62916666667</v>
       </c>
-      <c r="I21" s="5" t="n">
+      <c r="I21" s="7" t="n">
         <v>44975.63680555556</v>
       </c>
-      <c r="J21" s="4" t="inlineStr">
+      <c r="J21" s="6" t="inlineStr">
         <is>
           <t>TIAGO BORBA</t>
         </is>
       </c>
-      <c r="K21" s="4" t="inlineStr">
+      <c r="K21" s="6" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L21" s="4" t="inlineStr">
+      <c r="L21" s="6" t="inlineStr">
         <is>
           <t>DUVIDA XCONTACT - WHATS APP</t>
         </is>
       </c>
-      <c r="M21" s="4" t="inlineStr">
+      <c r="M21" s="6" t="inlineStr">
         <is>
           <t>OLÁ,NOSSOS AGENTES GOSTARIAM DE QUE O CLIENTE FOSSE NOTIFICADO QUANDO UM ATENDIMENTO FOSSE TRANSFERIDO PARA OUTRO AGENTE.OLHANDO NAS CONFIGURAÇÕES DAS FILAS COLOCAMOS A INFORMAÇÃO, PORÉM NEM O CLIENTE E NEM O AGENTE QUE RECEBE A TRANSFERÊNCIA É INFORMANDO QUE O ATENDIMENTO FOI TRANSFERIDO.WHATSAPP - GUPSHUP[CID:IMAGE001.PNG@01D94157.DFD63D20]ATTBORBA</t>
         </is>
       </c>
-      <c r="N21" s="4" t="inlineStr">
+      <c r="N21" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O21" s="4" t="inlineStr">
+      <c r="O21" s="6" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P21" s="4" t="inlineStr">
+      <c r="P21" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q21" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R21" s="4" t="inlineStr">
+      <c r="Q21" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R21" s="6" t="inlineStr">
         <is>
           <t>BOA TARDE PREZADOS,
 AS OPÇÕES MENCIONADAS, NESTE MOMENTO, ESTÃO DISPONÍVEIS APENAS PARA CONSTAREM NOS RELATÓRIOS.
 FOI INFORMADO AO NOSSO TIME DE DEV PARA QUE REALIZE O AJUSTE EM UMA VERSÃO FUTURA</t>
         </is>
       </c>
-      <c r="S21" s="4" t="inlineStr">
+      <c r="S21" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T21" s="4" t="inlineStr">
+      <c r="T21" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U21" s="4" t="inlineStr">
+      <c r="U21" s="6" t="inlineStr">
         <is>
           <t>04:39:42</t>
         </is>
       </c>
-      <c r="V21" s="4" t="inlineStr">
+      <c r="V21" s="6" t="inlineStr">
         <is>
           <t>04:39:42</t>
         </is>
       </c>
-      <c r="W21" s="4" t="n">
+      <c r="W21" s="6" t="n">
         <v>8092</v>
       </c>
-      <c r="X21" s="4" t="inlineStr">
+      <c r="X21" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y21" s="4" t="inlineStr">
+      <c r="Y21" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n">
+      <c r="A22" s="5" t="n">
         <v>202302000667</v>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D22" s="4" t="inlineStr">
+      <c r="D22" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E22" s="6" t="inlineStr">
         <is>
           <t>16/02/2023 10:55</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G22" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H22" s="4" t="inlineStr">
+      <c r="F22" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G22" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H22" s="6" t="inlineStr">
         <is>
           <t>16/02/2023 11:02</t>
         </is>
       </c>
-      <c r="I22" s="5" t="n">
+      <c r="I22" s="7" t="n">
         <v>44975.52569444444</v>
       </c>
-      <c r="J22" s="4" t="inlineStr">
+      <c r="J22" s="6" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K22" s="4" t="inlineStr">
+      <c r="K22" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L22" s="4" t="inlineStr">
+      <c r="L22" s="6" t="inlineStr">
         <is>
           <t>TELEFONES DECT - HORÁRIO ATRASADO.</t>
         </is>
       </c>
-      <c r="M22" s="4" t="inlineStr">
+      <c r="M22" s="6" t="inlineStr">
         <is>
           <t>BOM DIA, FAVOR AJUSTAR O HORÁRIO NOS TELEFONES SEM FIO DECT AQUI DA FABRICA DA CISER EM ARAQUARI. TODOS OS RAMAIS MÓVEIS ESTÃO COM QUASE 50MIN DE ATRASO.</t>
         </is>
       </c>
-      <c r="N22" s="4" t="inlineStr">
+      <c r="N22" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O22" s="4" t="inlineStr">
+      <c r="O22" s="6" t="inlineStr">
         <is>
           <t>FAB4</t>
         </is>
       </c>
-      <c r="P22" s="4" t="inlineStr">
+      <c r="P22" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q22" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R22" s="4" t="inlineStr">
+      <c r="Q22" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R22" s="6" t="inlineStr">
         <is>
           <t>REALIZADO AJUSTE CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S22" s="4" t="inlineStr">
+      <c r="S22" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T22" s="4" t="inlineStr">
+      <c r="T22" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U22" s="4" t="inlineStr">
+      <c r="U22" s="6" t="inlineStr">
         <is>
           <t>00:07:34</t>
         </is>
       </c>
-      <c r="V22" s="4" t="inlineStr">
+      <c r="V22" s="6" t="inlineStr">
         <is>
           <t>00:07:34</t>
         </is>
       </c>
-      <c r="W22" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X22" s="4" t="inlineStr">
+      <c r="W22" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X22" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y22" s="4" t="inlineStr">
+      <c r="Y22" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n">
+      <c r="A23" s="5" t="n">
         <v>202302000670</v>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D23" s="4" t="inlineStr">
+      <c r="D23" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E23" s="6" t="inlineStr">
         <is>
           <t>16/02/2023 14:55</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G23" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H23" s="4" t="inlineStr">
+      <c r="F23" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G23" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H23" s="6" t="inlineStr">
         <is>
           <t>16/02/2023 15:19</t>
         </is>
       </c>
-      <c r="I23" s="5" t="n">
+      <c r="I23" s="7" t="n">
         <v>44975.67152777778</v>
       </c>
-      <c r="J23" s="4" t="inlineStr">
+      <c r="J23" s="6" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K23" s="4" t="inlineStr">
+      <c r="K23" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L23" s="4" t="inlineStr">
+      <c r="L23" s="6" t="inlineStr">
         <is>
           <t>ALTERAR NOME DE RAMAL</t>
         </is>
       </c>
-      <c r="M23" s="4" t="inlineStr">
+      <c r="M23" s="6" t="inlineStr">
         <is>
           <t>BOA TARDE SOLICITO QUE SEJA ALTERADO O NOME DO RAMAL 3761 ( 47 3441-3761), PARA NATAN. ATENCIOSAMENTE ELITON MISAEL ZIMMERMANN</t>
         </is>
       </c>
-      <c r="N23" s="4" t="inlineStr">
+      <c r="N23" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O23" s="4" t="inlineStr">
+      <c r="O23" s="6" t="inlineStr">
         <is>
           <t>CDC</t>
         </is>
       </c>
-      <c r="P23" s="4" t="inlineStr">
+      <c r="P23" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q23" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R23" s="4" t="inlineStr">
+      <c r="Q23" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R23" s="6" t="inlineStr">
         <is>
           <t>ALTERAÇÃO DE DISPLAY NAME</t>
         </is>
       </c>
-      <c r="S23" s="4" t="inlineStr">
+      <c r="S23" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T23" s="4" t="inlineStr">
+      <c r="T23" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U23" s="4" t="inlineStr">
+      <c r="U23" s="6" t="inlineStr">
         <is>
           <t>00:24:11</t>
         </is>
       </c>
-      <c r="V23" s="4" t="inlineStr">
+      <c r="V23" s="6" t="inlineStr">
         <is>
           <t>00:24:11</t>
         </is>
       </c>
-      <c r="W23" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X23" s="4" t="inlineStr">
+      <c r="W23" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X23" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y23" s="4" t="inlineStr">
+      <c r="Y23" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n">
+      <c r="A24" s="5" t="n">
         <v>202302000671</v>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D24" s="4" t="inlineStr">
+      <c r="D24" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E24" s="6" t="inlineStr">
         <is>
           <t>16/02/2023 15:27</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G24" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H24" s="5" t="n">
+      <c r="F24" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G24" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H24" s="7" t="n">
         <v>44981.72013888889</v>
       </c>
-      <c r="I24" s="5" t="n">
+      <c r="I24" s="7" t="n">
         <v>44985.75902777778</v>
       </c>
-      <c r="J24" s="4" t="inlineStr">
+      <c r="J24" s="6" t="inlineStr">
         <is>
           <t>MURILO HORST</t>
         </is>
       </c>
-      <c r="K24" s="4" t="inlineStr">
+      <c r="K24" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L24" s="4" t="inlineStr">
+      <c r="L24" s="6" t="inlineStr">
         <is>
           <t>CONFIGURAR LINHA PARA SER UTILIZADA VIA MS TEAMS</t>
         </is>
       </c>
-      <c r="M24" s="4" t="inlineStr">
+      <c r="M24" s="6" t="inlineStr">
         <is>
           <t>CONFIGURAR LINHA ABAIXO PARA SER UTILIZADA VIA MS TEAMS55 47 3441-3763</t>
         </is>
       </c>
-      <c r="N24" s="4" t="inlineStr">
+      <c r="N24" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O24" s="4" t="inlineStr">
+      <c r="O24" s="6" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P24" s="4" t="inlineStr">
+      <c r="P24" s="6" t="inlineStr">
         <is>
           <t>N2 TOIP</t>
         </is>
       </c>
-      <c r="Q24" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R24" s="4" t="inlineStr">
+      <c r="Q24" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R24" s="6" t="inlineStr">
         <is>
           <t>RAMAL CONFIGURADO COMO SOLICITADO E VALIDADO PELO CLIENTE</t>
         </is>
       </c>
-      <c r="S24" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="T24" s="4" t="inlineStr">
+      <c r="S24" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="T24" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U24" s="4" t="inlineStr">
+      <c r="U24" s="6" t="inlineStr">
         <is>
           <t>03:56:13</t>
         </is>
       </c>
-      <c r="V24" s="4" t="inlineStr">
+      <c r="V24" s="6" t="inlineStr">
         <is>
           <t>03:56:13</t>
         </is>
       </c>
-      <c r="W24" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X24" s="4" t="inlineStr">
+      <c r="W24" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X24" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y24" s="4" t="inlineStr">
+      <c r="Y24" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n">
+      <c r="A25" s="5" t="n">
         <v>202302000679</v>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C25" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D25" s="4" t="inlineStr">
+      <c r="D25" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E25" s="6" t="inlineStr">
         <is>
           <t>17/02/2023 08:17</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G25" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H25" s="4" t="inlineStr">
+      <c r="F25" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G25" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H25" s="6" t="inlineStr">
         <is>
           <t>17/02/2023 12:39</t>
         </is>
       </c>
-      <c r="I25" s="5" t="n">
+      <c r="I25" s="7" t="n">
         <v>44976.54444444444</v>
       </c>
-      <c r="J25" s="4" t="inlineStr">
+      <c r="J25" s="6" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K25" s="4" t="inlineStr">
+      <c r="K25" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L25" s="4" t="inlineStr">
+      <c r="L25" s="6" t="inlineStr">
         <is>
           <t>TROCAR NOME DE USUÁRIO - RAMAL (47) 3441-3729</t>
         </is>
       </c>
-      <c r="M25" s="4" t="inlineStr">
+      <c r="M25" s="6" t="inlineStr">
         <is>
           <t>BOM DIA, FAVOR TROCAR O NOME DE USUÁRIO NO DISPLAY DO RAMAL: (47) 3441-3729 PARA: MARCO TULIO</t>
         </is>
       </c>
-      <c r="N25" s="4" t="inlineStr">
+      <c r="N25" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O25" s="4" t="inlineStr">
+      <c r="O25" s="6" t="inlineStr">
         <is>
           <t>FAB4</t>
         </is>
       </c>
-      <c r="P25" s="4" t="inlineStr">
+      <c r="P25" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q25" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R25" s="4" t="inlineStr">
+      <c r="Q25" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R25" s="6" t="inlineStr">
         <is>
           <t>ALTERAÇÃO DE DISPLAY NAME</t>
         </is>
       </c>
-      <c r="S25" s="4" t="inlineStr">
+      <c r="S25" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T25" s="4" t="inlineStr">
+      <c r="T25" s="6" t="inlineStr">
         <is>
           <t>03:52:00</t>
         </is>
       </c>
-      <c r="U25" s="4" t="inlineStr">
+      <c r="U25" s="6" t="inlineStr">
         <is>
           <t>00:29:38</t>
         </is>
       </c>
-      <c r="V25" s="4" t="inlineStr">
+      <c r="V25" s="6" t="inlineStr">
         <is>
           <t>04:21:38</t>
         </is>
       </c>
-      <c r="W25" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X25" s="4" t="inlineStr">
+      <c r="W25" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X25" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y25" s="4" t="inlineStr">
+      <c r="Y25" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
+      <c r="A26" s="5" t="n">
         <v>202302000684</v>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C26" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D26" s="4" t="inlineStr">
+      <c r="D26" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CALENDÁRIO DESSINCRONIZADO</t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E26" s="6" t="inlineStr">
         <is>
           <t>17/02/2023 10:07</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
+      <c r="F26" s="6" t="inlineStr">
         <is>
           <t>17/02/2023 10:07</t>
         </is>
       </c>
-      <c r="G26" s="5" t="n">
+      <c r="G26" s="7" t="n">
         <v>44980.63194444445</v>
       </c>
-      <c r="H26" s="5" t="n">
+      <c r="H26" s="7" t="n">
         <v>44980.63472222222</v>
       </c>
-      <c r="I26" s="5" t="n">
+      <c r="I26" s="7" t="n">
         <v>44982.64583333334</v>
       </c>
-      <c r="J26" s="4" t="inlineStr">
+      <c r="J26" s="6" t="inlineStr">
         <is>
           <t>TIAGO BORBA</t>
         </is>
       </c>
-      <c r="K26" s="4" t="inlineStr">
+      <c r="K26" s="6" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L26" s="4" t="inlineStr">
+      <c r="L26" s="6" t="inlineStr">
         <is>
           <t>CISER - EQUIPAMENTOS DE VÍDEO CONFERENCIA PERDENDO CONEXÃO CALENDÁRIO</t>
         </is>
       </c>
-      <c r="M26" s="4" t="inlineStr">
+      <c r="M26" s="6" t="inlineStr">
         <is>
           <t>OLÁ..NOSSOS 2 EQUIPAMENTOS DE VÍDEO CONFERÊNCIA ESTÃO PERDENDO CONSTANTEMENTE A CONEXÃO COM O CALENDÁRIO.SENDO NECESSÁRIO REINICIAR OS EQUIPAMENTOS E GERANDO TRANSTORNO NO INICIO DE CADA REUNIÃO.FAVOR NOS AJUDAR QUANTO A ISSO[CID:IMAGE001.PNG@01D942B7.500CE110]ATTBORBA</t>
         </is>
       </c>
-      <c r="N26" s="4" t="inlineStr">
+      <c r="N26" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O26" s="4" t="inlineStr">
+      <c r="O26" s="6" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P26" s="4" t="inlineStr">
+      <c r="P26" s="6" t="inlineStr">
         <is>
           <t>N2 VÍDEO</t>
         </is>
       </c>
-      <c r="Q26" s="4" t="inlineStr">
+      <c r="Q26" s="6" t="inlineStr">
         <is>
           <t>REDE INTERNA DO CLIENTE</t>
         </is>
       </c>
-      <c r="R26" s="4" t="inlineStr">
+      <c r="R26" s="6" t="inlineStr">
         <is>
           <t>EM CONTATO COM O CLIENTE FOI VERIFICADO, QUE HAVIA UMA FALHA NA REDE DO CLIENTE. APÓS AJUSTE REALIZADO, OS EQUIPAMENTOS VOLTARAM A SINCRONIZAR O CALENDÁRIO NORMALMENTE</t>
         </is>
       </c>
-      <c r="S26" s="4" t="inlineStr">
+      <c r="S26" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T26" s="4" t="inlineStr">
+      <c r="T26" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U26" s="4" t="inlineStr">
+      <c r="U26" s="6" t="inlineStr">
         <is>
           <t>10:51:55</t>
         </is>
       </c>
-      <c r="V26" s="4" t="inlineStr">
+      <c r="V26" s="6" t="inlineStr">
         <is>
           <t>10:51:55</t>
         </is>
       </c>
-      <c r="W26" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X26" s="4" t="inlineStr">
+      <c r="W26" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X26" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y26" s="5" t="n">
+      <c r="Y26" s="7" t="n">
         <v>6.210416666666666</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="n">
+      <c r="A27" s="5" t="n">
         <v>202302000688</v>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C27" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D27" s="4" t="inlineStr">
+      <c r="D27" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="6" t="inlineStr">
         <is>
           <t>17/02/2023 16:44</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="6" t="inlineStr">
         <is>
           <t>17/02/2023 14:39</t>
         </is>
       </c>
-      <c r="G27" s="5" t="n">
+      <c r="G27" s="7" t="n">
         <v>44974.87222222222</v>
       </c>
-      <c r="H27" s="5" t="n">
+      <c r="H27" s="7" t="n">
         <v>44974.99930555555</v>
       </c>
-      <c r="I27" s="5" t="n">
+      <c r="I27" s="7" t="n">
         <v>44977.025</v>
       </c>
-      <c r="J27" s="4" t="inlineStr">
+      <c r="J27" s="6" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K27" s="4" t="inlineStr">
+      <c r="K27" s="6" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L27" s="4" t="inlineStr">
+      <c r="L27" s="6" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN_CISER_SZD</t>
         </is>
       </c>
-      <c r="M27" s="4" t="inlineStr">
+      <c r="M27" s="6" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN_CISER_SZDIP: 177.52.23.2REMOTE: 168.227.200.242</t>
         </is>
       </c>
-      <c r="N27" s="4" t="inlineStr">
+      <c r="N27" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O27" s="4" t="inlineStr">
+      <c r="O27" s="6" t="inlineStr">
         <is>
           <t>SARZEDO</t>
         </is>
       </c>
-      <c r="P27" s="4" t="inlineStr">
+      <c r="P27" s="6" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q27" s="4" t="inlineStr">
+      <c r="Q27" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R27" s="4" t="inlineStr">
+      <c r="R27" s="6" t="inlineStr">
         <is>
           <t>O ALARME DE INOPERÂNCIA DA VPN FOI NORMALIZADO EM  NOSSO MONITORAMENTO. ENVIADO E-MAIL AO CLIENTE DA NORMALIZAÇÃO DO SERVIÇO</t>
         </is>
       </c>
-      <c r="S27" s="4" t="inlineStr">
+      <c r="S27" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T27" s="4" t="inlineStr">
+      <c r="T27" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U27" s="4" t="inlineStr">
+      <c r="U27" s="6" t="inlineStr">
         <is>
           <t>04:15:14</t>
         </is>
       </c>
-      <c r="V27" s="4" t="inlineStr">
+      <c r="V27" s="6" t="inlineStr">
         <is>
           <t>04:15:14</t>
         </is>
       </c>
-      <c r="W27" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X27" s="4" t="inlineStr">
+      <c r="W27" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X27" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y27" s="4" t="inlineStr">
+      <c r="Y27" s="6" t="inlineStr">
         <is>
           <t>06:17:00</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n">
+      <c r="A28" s="5" t="n">
         <v>202302000697</v>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D28" s="4" t="inlineStr">
+      <c r="D28" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E28" s="6" t="inlineStr">
         <is>
           <t>20/02/2023 13:37</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G28" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H28" s="4" t="inlineStr">
+      <c r="F28" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G28" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H28" s="6" t="inlineStr">
         <is>
           <t>20/02/2023 14:06</t>
         </is>
       </c>
-      <c r="I28" s="5" t="n">
+      <c r="I28" s="7" t="n">
         <v>44979.61458333334</v>
       </c>
-      <c r="J28" s="4" t="inlineStr">
+      <c r="J28" s="6" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K28" s="4" t="inlineStr">
+      <c r="K28" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L28" s="4" t="inlineStr">
+      <c r="L28" s="6" t="inlineStr">
         <is>
           <t>TROCAR NOME DE USUÁRIO - RAMAL (47) 3441-3729</t>
         </is>
       </c>
-      <c r="M28" s="4" t="inlineStr">
+      <c r="M28" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">BOA TARDE, NA SEMANA PASSADA EU ABRI O TICKET: 202302000679 SOLICITANDO A TROCA DO NOME DE USUÁRIO DO RAMAL, PORÉM SÓ FOI ALTERADO O NOME NO DISPLAY DO APARELHO.QUANDO LIGAMOS PRO NÚMERO AINDA APARECE O NOME DO ANTIGO DONO.  RAMAL: (47) 3441-3729 -&gt; ALTERAR PARA MARCO TULIO </t>
         </is>
       </c>
-      <c r="N28" s="4" t="inlineStr">
+      <c r="N28" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O28" s="4" t="inlineStr">
+      <c r="O28" s="6" t="inlineStr">
         <is>
           <t>JOINVILLE_FAB4</t>
         </is>
       </c>
-      <c r="P28" s="4" t="inlineStr">
+      <c r="P28" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q28" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R28" s="4" t="inlineStr">
+      <c r="Q28" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R28" s="6" t="inlineStr">
         <is>
           <t>BOA TARDE PREZADOS,ALTERAÇÃO REALIZADA CONFORME SOLICITADO.{LUIZ CARLOS}</t>
         </is>
       </c>
-      <c r="S28" s="4" t="inlineStr">
+      <c r="S28" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T28" s="4" t="inlineStr">
+      <c r="T28" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U28" s="4" t="inlineStr">
+      <c r="U28" s="6" t="inlineStr">
         <is>
           <t>00:28:30</t>
         </is>
       </c>
-      <c r="V28" s="4" t="inlineStr">
+      <c r="V28" s="6" t="inlineStr">
         <is>
           <t>00:28:30</t>
         </is>
       </c>
-      <c r="W28" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X28" s="4" t="inlineStr">
+      <c r="W28" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X28" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y28" s="4" t="inlineStr">
+      <c r="Y28" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="n">
+      <c r="A29" s="5" t="n">
         <v>202302000699</v>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D29" s="4" t="inlineStr">
+      <c r="D29" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E29" s="6" t="inlineStr">
         <is>
           <t>21/02/2023 17:28</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="F29" s="6" t="inlineStr">
         <is>
           <t>21/02/2023 17:21</t>
         </is>
       </c>
-      <c r="G29" s="5" t="n">
+      <c r="G29" s="7" t="n">
         <v>44978.72638888889</v>
       </c>
-      <c r="H29" s="5" t="n">
+      <c r="H29" s="7" t="n">
         <v>44979.35625</v>
       </c>
-      <c r="I29" s="5" t="n">
+      <c r="I29" s="7" t="n">
         <v>44981.38055555556</v>
       </c>
-      <c r="J29" s="4" t="inlineStr">
+      <c r="J29" s="6" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K29" s="4" t="inlineStr">
+      <c r="K29" s="6" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L29" s="4" t="inlineStr">
+      <c r="L29" s="6" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN-CISER-SP IS DOWN</t>
         </is>
       </c>
-      <c r="M29" s="4" t="inlineStr">
+      <c r="M29" s="6" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=58957&amp;EVENTID=391210944</t>
         </is>
       </c>
-      <c r="N29" s="4" t="inlineStr">
+      <c r="N29" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O29" s="4" t="inlineStr">
+      <c r="O29" s="6" t="inlineStr">
         <is>
           <t>SÃO PAULO</t>
         </is>
       </c>
-      <c r="P29" s="4" t="inlineStr">
+      <c r="P29" s="6" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q29" s="4" t="inlineStr">
+      <c r="Q29" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R29" s="4" t="inlineStr">
+      <c r="R29" s="6" t="inlineStr">
         <is>
           <t>VPN NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S29" s="4" t="inlineStr">
+      <c r="S29" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T29" s="4" t="inlineStr">
+      <c r="T29" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U29" s="4" t="inlineStr">
+      <c r="U29" s="6" t="inlineStr">
         <is>
           <t>04:39:59</t>
         </is>
       </c>
-      <c r="V29" s="4" t="inlineStr">
+      <c r="V29" s="6" t="inlineStr">
         <is>
           <t>04:39:59</t>
         </is>
       </c>
-      <c r="W29" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X29" s="4" t="inlineStr">
+      <c r="W29" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X29" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y29" s="4" t="inlineStr">
+      <c r="Y29" s="6" t="inlineStr">
         <is>
           <t>00:05:00</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n">
+      <c r="A30" s="5" t="n">
         <v>202302000721</v>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B30" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="C30" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D30" s="4" t="inlineStr">
+      <c r="D30" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="E30" s="6" t="inlineStr">
         <is>
           <t>24/02/2023 13:51</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G30" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H30" s="4" t="inlineStr">
+      <c r="F30" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G30" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H30" s="6" t="inlineStr">
         <is>
           <t>24/02/2023 14:53</t>
         </is>
       </c>
-      <c r="I30" s="5" t="n">
+      <c r="I30" s="7" t="n">
         <v>44983.64652777778</v>
       </c>
-      <c r="J30" s="4" t="inlineStr">
+      <c r="J30" s="6" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K30" s="4" t="inlineStr">
+      <c r="K30" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L30" s="4" t="inlineStr">
+      <c r="L30" s="6" t="inlineStr">
         <is>
           <t>ATUALIZAR FIRMWARE RAMA 3993</t>
         </is>
       </c>
-      <c r="M30" s="4" t="inlineStr">
+      <c r="M30" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">BOA TARDE, FAVOR ATUALIZAR O FIRMWARE DO RAMA 3993.  </t>
         </is>
       </c>
-      <c r="N30" s="4" t="inlineStr">
+      <c r="N30" s="6" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O30" s="4" t="inlineStr">
+      <c r="O30" s="6" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P30" s="4" t="inlineStr">
+      <c r="P30" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q30" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R30" s="4" t="inlineStr">
+      <c r="Q30" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R30" s="6" t="inlineStr">
         <is>
           <t>ATUALIZAÇÃO DE FIRMWARE</t>
         </is>
       </c>
-      <c r="S30" s="4" t="inlineStr">
+      <c r="S30" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T30" s="4" t="inlineStr">
+      <c r="T30" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U30" s="4" t="inlineStr">
+      <c r="U30" s="6" t="inlineStr">
         <is>
           <t>01:02:36</t>
         </is>
       </c>
-      <c r="V30" s="4" t="inlineStr">
+      <c r="V30" s="6" t="inlineStr">
         <is>
           <t>01:02:36</t>
         </is>
       </c>
-      <c r="W30" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X30" s="4" t="inlineStr">
+      <c r="W30" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X30" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y30" s="4" t="inlineStr">
+      <c r="Y30" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="n">
+      <c r="A31" s="8" t="n">
         <v>202302000741</v>
       </c>
-      <c r="B31" s="6" t="inlineStr">
+      <c r="B31" s="9" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C31" s="6" t="inlineStr">
+      <c r="C31" s="9" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D31" s="6" t="inlineStr">
+      <c r="D31" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E31" s="6" t="inlineStr">
+      <c r="E31" s="9" t="inlineStr">
         <is>
           <t>27/02/2023 10:44</t>
         </is>
       </c>
-      <c r="F31" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G31" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H31" s="6" t="inlineStr">
+      <c r="F31" s="9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G31" s="9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="inlineStr">
         <is>
           <t>27/02/2023 10:51</t>
         </is>
       </c>
-      <c r="I31" s="6" t="inlineStr">
+      <c r="I31" s="9" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J31" s="6" t="inlineStr">
+      <c r="J31" s="9" t="inlineStr">
         <is>
           <t>SUPORTE CISER</t>
         </is>
       </c>
-      <c r="K31" s="6" t="inlineStr">
+      <c r="K31" s="9" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L31" s="6" t="inlineStr">
+      <c r="L31" s="9" t="inlineStr">
         <is>
           <t>ALTERAR IDETIFICADOR DE CHAMADAS - RAMAL 3546 MARCO</t>
         </is>
       </c>
-      <c r="M31" s="6" t="inlineStr">
+      <c r="M31" s="9" t="inlineStr">
         <is>
           <t>BOM DIA, FAVOR ALTERAR O IDENTIFICADOR DE CHAMADAS DO RAMAL 3546 DE KARIN, PARA MARCO.</t>
         </is>
       </c>
-      <c r="N31" s="6" t="inlineStr">
+      <c r="N31" s="9" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O31" s="6" t="inlineStr">
+      <c r="O31" s="9" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P31" s="6" t="inlineStr">
+      <c r="P31" s="9" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q31" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R31" s="6" t="inlineStr">
+      <c r="Q31" s="9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R31" s="9" t="inlineStr">
         <is>
           <t>REALIZADO AJUSTES CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S31" s="6" t="inlineStr">
+      <c r="S31" s="9" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T31" s="6" t="inlineStr">
+      <c r="T31" s="9" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U31" s="6" t="inlineStr">
+      <c r="U31" s="9" t="inlineStr">
         <is>
           <t>00:07:31</t>
         </is>
       </c>
-      <c r="V31" s="6" t="inlineStr">
+      <c r="V31" s="9" t="inlineStr">
         <is>
           <t>00:07:31</t>
         </is>
       </c>
-      <c r="W31" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X31" s="4" t="inlineStr">
+      <c r="W31" s="9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X31" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y31" s="4" t="inlineStr">
+      <c r="Y31" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="n">
+      <c r="A32" s="8" t="n">
         <v>202302000761</v>
       </c>
-      <c r="B32" s="6" t="inlineStr">
+      <c r="B32" s="9" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C32" s="6" t="inlineStr">
+      <c r="C32" s="9" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D32" s="6" t="inlineStr">
+      <c r="D32" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E32" s="6" t="inlineStr">
+      <c r="E32" s="9" t="inlineStr">
         <is>
           <t>27/02/2023 22:25</t>
         </is>
       </c>
-      <c r="F32" s="6" t="inlineStr">
+      <c r="F32" s="9" t="inlineStr">
         <is>
           <t>27/02/2023 22:03</t>
         </is>
       </c>
-      <c r="G32" s="7" t="n">
+      <c r="G32" s="10" t="n">
         <v>44985.44027777778</v>
       </c>
-      <c r="H32" s="7" t="n">
+      <c r="H32" s="10" t="n">
         <v>44985.47430555556</v>
       </c>
-      <c r="I32" s="6" t="inlineStr">
+      <c r="I32" s="9" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J32" s="6" t="inlineStr">
+      <c r="J32" s="9" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K32" s="6" t="inlineStr">
+      <c r="K32" s="9" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L32" s="6" t="inlineStr">
+      <c r="L32" s="9" t="inlineStr">
         <is>
           <t>##VPN TUNNEL VPN_CISER_SZD02 IS DOWN</t>
         </is>
       </c>
-      <c r="M32" s="6" t="inlineStr">
+      <c r="M32" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">VPN_CISER_SZD02_02 IS DOWNIP: 177.85.80.166DATA: 27/02/2023 ÀS 22:03DETAIL: HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=48805&amp;EVENTID=396038188 </t>
         </is>
       </c>
-      <c r="N32" s="6" t="inlineStr">
+      <c r="N32" s="9" t="inlineStr">
         <is>
           <t>CISER</t>
         </is>
       </c>
-      <c r="O32" s="6" t="inlineStr">
+      <c r="O32" s="9" t="inlineStr">
         <is>
           <t>SARZEDO</t>
         </is>
       </c>
-      <c r="P32" s="6" t="inlineStr">
+      <c r="P32" s="9" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q32" s="6" t="inlineStr">
+      <c r="Q32" s="9" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R32" s="6" t="inlineStr">
+      <c r="R32" s="9" t="inlineStr">
         <is>
           <t>VPN NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S32" s="6" t="inlineStr">
+      <c r="S32" s="9" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T32" s="6" t="inlineStr">
+      <c r="T32" s="9" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U32" s="6" t="inlineStr">
+      <c r="U32" s="9" t="inlineStr">
         <is>
           <t>00:09:40</t>
         </is>
       </c>
-      <c r="V32" s="6" t="inlineStr">
+      <c r="V32" s="9" t="inlineStr">
         <is>
           <t>00:09:40</t>
         </is>
       </c>
-      <c r="W32" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X32" s="4" t="inlineStr">
+      <c r="W32" s="9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X32" s="6" t="inlineStr">
         <is>
           <t>NOITE</t>
         </is>
       </c>
-      <c r="Y32" s="4" t="inlineStr">
+      <c r="Y32" s="6" t="inlineStr">
         <is>
           <t>12:31:00</t>
         </is>
